--- a/02.Hardware/MK2 2040/01.EDCPSU/BOM/EDCPSU_MK2_RP2040_BOM-SETI.xlsx
+++ b/02.Hardware/MK2 2040/01.EDCPSU/BOM/EDCPSU_MK2_RP2040_BOM-SETI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Team Dropbox\JRODRIGUEZ\Repositorios\07.MK2\02.Hardware\MK2 2040\01.EDCPSU\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CD642B-8A4B-4E16-9F4A-3B8DED4E48A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C268A14E-EFDB-49E2-96EC-74BFC4184671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EDCPSUMK2" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="252">
   <si>
     <t>Qty</t>
   </si>
@@ -372,9 +372,6 @@
     <t>U10</t>
   </si>
   <si>
-    <t>BOM VERSION v1</t>
-  </si>
-  <si>
     <t>MK2-RP2040</t>
   </si>
   <si>
@@ -708,9 +705,6 @@
     <t>Creacion</t>
   </si>
   <si>
-    <t>Suministrado</t>
-  </si>
-  <si>
     <t>0.025R / 1W</t>
   </si>
   <si>
@@ -774,14 +768,35 @@
     <t>R11</t>
   </si>
   <si>
+    <t>Cambios</t>
+  </si>
+  <si>
+    <t>Eliminada</t>
+  </si>
+  <si>
+    <t>Nueva</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
     <t>Se añade el pos 79 con el part R15
-Se añade la pos  con el part D3 con el valor N.C
+Se añade la pos 80 con el part D3 con el valor N.C
 Se añade a la pos 43 el part 57 aumentando su Qty.
 Se cambia el value de la pos 76  a LM4040C30FTA
 Se cambia el valor de la pos 39 part R12 a 0,025mOhm
-Se aumenta la pos 42 con el part R41 
+Se aumenta la pos 46 con el part R41 
 Se aumenta la pos 45 con el part R43 
 Se añade la pos 81 cambia el valor de R11 a 15K</t>
+  </si>
+  <si>
+    <t>Se añade la columna de Cambios</t>
+  </si>
+  <si>
+    <t>BOM VERSION v3</t>
   </si>
 </sst>
 </file>
@@ -1698,7 +1713,7 @@
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1795,9 +1810,6 @@
     <xf numFmtId="49" fontId="17" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1864,9 +1876,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1874,6 +1883,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1962,7 +1974,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Total 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="21">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2075,6 +2087,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2085,11 +2107,51 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2461,8 +2523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2484,21 +2546,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="H1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="E2" s="5">
+        <v>45020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="H2" s="5">
-        <v>45020</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
@@ -2509,7 +2571,7 @@
         <v>85</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>93</v>
@@ -2571,16 +2633,16 @@
         <v>87</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I7" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
     </row>
     <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
@@ -2599,10 +2661,10 @@
         <v>42</v>
       </c>
       <c r="F8" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="34" t="s">
         <v>114</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>115</v>
       </c>
       <c r="H8" s="34">
         <v>1210</v>
@@ -2610,15 +2672,15 @@
       <c r="I8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="48"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
-        <v>86</v>
+      <c r="A9" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>82</v>
@@ -2630,7 +2692,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>72</v>
@@ -2644,11 +2706,11 @@
       <c r="I9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="49"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
     </row>
     <row r="10" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
@@ -2664,10 +2726,10 @@
         <v>34</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G10" s="34" t="s">
         <v>18</v>
@@ -2678,11 +2740,11 @@
       <c r="I10" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
@@ -2698,13 +2760,13 @@
         <v>4</v>
       </c>
       <c r="E11" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="34" t="s">
-        <v>119</v>
-      </c>
       <c r="G11" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H11" s="34">
         <v>1206</v>
@@ -2712,11 +2774,11 @@
       <c r="I11" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="49"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
@@ -2732,10 +2794,10 @@
         <v>2</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G12" s="34" t="s">
         <v>18</v>
@@ -2746,11 +2808,11 @@
       <c r="I12" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="49"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
@@ -2766,10 +2828,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="34" t="s">
         <v>121</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>122</v>
       </c>
       <c r="G13" s="34" t="s">
         <v>18</v>
@@ -2780,11 +2842,11 @@
       <c r="I13" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="49"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
@@ -2802,8 +2864,8 @@
       <c r="E14" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="36" t="s">
-        <v>123</v>
+      <c r="F14" s="34" t="s">
+        <v>122</v>
       </c>
       <c r="G14" s="34" t="s">
         <v>18</v>
@@ -2814,11 +2876,11 @@
       <c r="I14" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="49"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
@@ -2836,8 +2898,8 @@
       <c r="E15" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="36" t="s">
-        <v>124</v>
+      <c r="F15" s="34" t="s">
+        <v>123</v>
       </c>
       <c r="G15" s="34" t="s">
         <v>18</v>
@@ -2848,11 +2910,11 @@
       <c r="I15" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="49"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
@@ -2871,10 +2933,10 @@
         <v>34</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H16" s="34">
         <v>1210</v>
@@ -2882,11 +2944,11 @@
       <c r="I16" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="49"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
@@ -2902,10 +2964,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="34" t="s">
         <v>125</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>126</v>
       </c>
       <c r="G17" s="34" t="s">
         <v>18</v>
@@ -2916,11 +2978,11 @@
       <c r="I17" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="49"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
@@ -2936,10 +2998,10 @@
         <v>2</v>
       </c>
       <c r="E18" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="34" t="s">
         <v>127</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>128</v>
       </c>
       <c r="G18" s="34" t="s">
         <v>18</v>
@@ -2950,11 +3012,11 @@
       <c r="I18" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="49"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
@@ -2970,10 +3032,10 @@
         <v>2</v>
       </c>
       <c r="E19" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="34" t="s">
         <v>129</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>130</v>
       </c>
       <c r="G19" s="34" t="s">
         <v>18</v>
@@ -2984,11 +3046,11 @@
       <c r="I19" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="49"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
@@ -3004,10 +3066,10 @@
         <v>8</v>
       </c>
       <c r="E20" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="34" t="s">
         <v>131</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>132</v>
       </c>
       <c r="G20" s="34" t="s">
         <v>18</v>
@@ -3018,18 +3080,18 @@
       <c r="I20" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="49"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>86</v>
+      <c r="B21" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="C21" s="23">
         <v>16</v>
@@ -3041,22 +3103,22 @@
         <v>60</v>
       </c>
       <c r="F21" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="G21" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="H21" s="34" t="s">
+      <c r="I21" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="I21" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="J21" s="49"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
@@ -3072,7 +3134,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>56</v>
@@ -3086,18 +3148,18 @@
       <c r="I22" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="J22" s="49"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>86</v>
+      <c r="B23" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="C23" s="23">
         <v>18</v>
@@ -3109,29 +3171,29 @@
         <v>94</v>
       </c>
       <c r="F23" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="G23" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="H23" s="34" t="s">
+      <c r="I23" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="I23" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="J23" s="49"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>86</v>
+      <c r="B24" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="C24" s="23">
         <v>19</v>
@@ -3140,25 +3202,25 @@
         <v>1</v>
       </c>
       <c r="E24" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="G24" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="G24" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="H24" s="34" t="s">
+      <c r="I24" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="I24" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="J24" s="49"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
@@ -3177,20 +3239,20 @@
         <v>102</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H25" s="34" t="s">
         <v>59</v>
       </c>
       <c r="I25" s="34"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
@@ -3212,26 +3274,26 @@
         <v>73</v>
       </c>
       <c r="G26" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="H26" s="34" t="s">
+      <c r="I26" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="I26" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="J26" s="49"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
     </row>
     <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>86</v>
+      <c r="B27" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="C27" s="23">
         <v>22</v>
@@ -3240,25 +3302,25 @@
         <v>1</v>
       </c>
       <c r="E27" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="G27" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="H27" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="G27" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="H27" s="34" t="s">
+      <c r="I27" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="I27" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="J27" s="50"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
     </row>
     <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
@@ -3286,13 +3348,13 @@
         <v>105</v>
       </c>
       <c r="I28" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="J28" s="50"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
+        <v>152</v>
+      </c>
+      <c r="J28" s="49"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
     </row>
     <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
@@ -3320,18 +3382,18 @@
         <v>62</v>
       </c>
       <c r="I29" s="34"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
     </row>
     <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="22" t="s">
-        <v>86</v>
+      <c r="B30" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="C30" s="23">
         <v>27</v>
@@ -3340,32 +3402,32 @@
         <v>1</v>
       </c>
       <c r="E30" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="F30" s="34" t="s">
+      <c r="G30" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="I30" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G30" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="H30" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="I30" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="J30" s="50"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
     </row>
     <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="22" t="s">
-        <v>86</v>
+      <c r="B31" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="C31" s="23">
         <v>29</v>
@@ -3377,22 +3439,22 @@
         <v>50</v>
       </c>
       <c r="F31" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="H31" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="G31" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="H31" s="34" t="s">
+      <c r="I31" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="I31" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="J31" s="50"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="47"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="46"/>
     </row>
     <row r="32" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
@@ -3414,17 +3476,17 @@
         <v>43</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H32" s="34" t="s">
         <v>44</v>
       </c>
       <c r="I32" s="34"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="47"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="46"/>
     </row>
     <row r="33" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
@@ -3454,11 +3516,11 @@
       <c r="I33" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="J33" s="50"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="47"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="46"/>
     </row>
     <row r="34" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
@@ -3484,20 +3546,20 @@
         <v>7</v>
       </c>
       <c r="I34" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="J34" s="50"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="47"/>
+        <v>160</v>
+      </c>
+      <c r="J34" s="49"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="46"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="22" t="s">
-        <v>86</v>
+      <c r="B35" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="C35" s="23">
         <v>33</v>
@@ -3506,25 +3568,25 @@
         <v>1</v>
       </c>
       <c r="E35" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="F35" s="34" t="s">
+      <c r="G35" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="H35" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="G35" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="H35" s="34" t="s">
+      <c r="I35" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="I35" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="J35" s="52"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
@@ -3549,16 +3611,16 @@
         <v>66</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I36" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="J36" s="45"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
     </row>
     <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
@@ -3577,22 +3639,22 @@
         <v>35</v>
       </c>
       <c r="F37" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="G37" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="G37" s="34" t="s">
+      <c r="H37" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="H37" s="34" t="s">
+      <c r="I37" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="I37" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="J37" s="50"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="47"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="46"/>
     </row>
     <row r="38" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
@@ -3608,25 +3670,25 @@
         <v>4</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F38" s="34" t="s">
         <v>39</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H38" s="34" t="s">
         <v>40</v>
       </c>
       <c r="I38" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="J38" s="50"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="47"/>
+        <v>172</v>
+      </c>
+      <c r="J38" s="49"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="46"/>
     </row>
     <row r="39" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
@@ -3642,25 +3704,25 @@
         <v>8</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F39" s="34" t="s">
         <v>20</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H39" s="34">
         <v>805</v>
       </c>
       <c r="I39" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="J39" s="50"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="47"/>
+        <v>174</v>
+      </c>
+      <c r="J39" s="49"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="46"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
@@ -3682,26 +3744,26 @@
         <v>32</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H40" s="34">
         <v>805</v>
       </c>
       <c r="I40" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="J40" s="45"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47"/>
+        <v>174</v>
+      </c>
+      <c r="J40" s="44"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
     </row>
     <row r="41" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="23" t="s">
-        <v>82</v>
+      <c r="B41" s="63" t="s">
+        <v>248</v>
       </c>
       <c r="C41" s="23">
         <v>39</v>
@@ -3713,22 +3775,22 @@
         <v>17</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G41" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="H41" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="H41" s="34" t="s">
+      <c r="I41" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="I41" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="J41" s="45"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="47"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="46"/>
     </row>
     <row r="42" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
@@ -3744,25 +3806,25 @@
         <v>5</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F42" s="34" t="s">
         <v>36</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H42" s="34">
         <v>805</v>
       </c>
       <c r="I42" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="J42" s="45"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="47"/>
+        <v>174</v>
+      </c>
+      <c r="J42" s="44"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="46"/>
     </row>
     <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
@@ -3778,25 +3840,25 @@
         <v>7</v>
       </c>
       <c r="E43" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="F43" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="F43" s="34" t="s">
-        <v>181</v>
-      </c>
       <c r="G43" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H43" s="34">
         <v>805</v>
       </c>
       <c r="I43" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="J43" s="50"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
-      <c r="N43" s="47"/>
+        <v>174</v>
+      </c>
+      <c r="J43" s="49"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="46"/>
     </row>
     <row r="44" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="23" t="s">
@@ -3812,32 +3874,32 @@
         <v>7</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F44" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H44" s="34">
         <v>805</v>
       </c>
       <c r="I44" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="J44" s="45"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="47"/>
+        <v>174</v>
+      </c>
+      <c r="J44" s="44"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="46"/>
     </row>
     <row r="45" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="23" t="s">
-        <v>82</v>
+      <c r="B45" s="63" t="s">
+        <v>247</v>
       </c>
       <c r="C45" s="23">
         <v>43</v>
@@ -3846,25 +3908,25 @@
         <v>8</v>
       </c>
       <c r="E45" s="34" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F45" s="34" t="s">
         <v>28</v>
       </c>
       <c r="G45" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H45" s="34">
         <v>805</v>
       </c>
       <c r="I45" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="J45" s="50"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="47"/>
+        <v>174</v>
+      </c>
+      <c r="J45" s="49"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="46"/>
     </row>
     <row r="46" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="22" t="s">
@@ -3880,32 +3942,32 @@
         <v>6</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F46" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G46" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H46" s="34">
         <v>805</v>
       </c>
       <c r="I46" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="J46" s="50"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="51"/>
-      <c r="N46" s="47"/>
+        <v>174</v>
+      </c>
+      <c r="J46" s="49"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="46"/>
     </row>
     <row r="47" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="23" t="s">
-        <v>82</v>
+      <c r="B47" s="63" t="s">
+        <v>247</v>
       </c>
       <c r="C47" s="23">
         <v>45</v>
@@ -3914,32 +3976,32 @@
         <v>2</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F47" s="34" t="s">
         <v>23</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H47" s="34">
         <v>805</v>
       </c>
       <c r="I47" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="J47" s="45"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="51"/>
-      <c r="N47" s="47"/>
+        <v>174</v>
+      </c>
+      <c r="J47" s="44"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="46"/>
     </row>
     <row r="48" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B48" s="23" t="s">
-        <v>82</v>
+      <c r="B48" s="63" t="s">
+        <v>247</v>
       </c>
       <c r="C48" s="23">
         <v>46</v>
@@ -3948,25 +4010,25 @@
         <v>2</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F48" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G48" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H48" s="34">
         <v>805</v>
       </c>
       <c r="I48" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="J48" s="50"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
-      <c r="N48" s="47"/>
+        <v>174</v>
+      </c>
+      <c r="J48" s="49"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="50"/>
+      <c r="N48" s="46"/>
     </row>
     <row r="49" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="22" t="s">
@@ -3982,25 +4044,25 @@
         <v>2</v>
       </c>
       <c r="E49" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="F49" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="F49" s="34" t="s">
-        <v>185</v>
-      </c>
       <c r="G49" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H49" s="34">
         <v>805</v>
       </c>
       <c r="I49" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="J49" s="50"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="47"/>
+        <v>174</v>
+      </c>
+      <c r="J49" s="49"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="46"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="22" t="s">
@@ -4022,53 +4084,53 @@
         <v>48</v>
       </c>
       <c r="G50" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H50" s="34">
         <v>805</v>
       </c>
       <c r="I50" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="J50" s="45"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="47"/>
-      <c r="N50" s="47"/>
+        <v>174</v>
+      </c>
+      <c r="J50" s="44"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="46"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>82</v>
+      <c r="A51" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" s="63" t="s">
+        <v>245</v>
       </c>
       <c r="C51" s="23">
         <v>49</v>
       </c>
       <c r="D51" s="34" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F51" s="34" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G51" s="34" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H51" s="34" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I51" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="J51" s="45"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="47"/>
-      <c r="N51" s="47"/>
+        <v>234</v>
+      </c>
+      <c r="J51" s="44"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="46"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="22" t="s">
@@ -4084,25 +4146,25 @@
         <v>1</v>
       </c>
       <c r="E52" s="34" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F52" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G52" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H52" s="34">
         <v>805</v>
       </c>
       <c r="I52" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="J52" s="55"/>
-      <c r="K52" s="55"/>
-      <c r="L52" s="56"/>
-      <c r="M52" s="56"/>
-      <c r="N52" s="56"/>
+        <v>174</v>
+      </c>
+      <c r="J52" s="54"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="55"/>
+      <c r="N52" s="55"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="22" t="s">
@@ -4121,22 +4183,22 @@
         <v>41</v>
       </c>
       <c r="F53" s="34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G53" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H53" s="34">
         <v>805</v>
       </c>
       <c r="I53" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="J53" s="55"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="56"/>
+        <v>174</v>
+      </c>
+      <c r="J53" s="54"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="55"/>
+      <c r="M53" s="55"/>
+      <c r="N53" s="55"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="22" t="s">
@@ -4152,25 +4214,25 @@
         <v>2</v>
       </c>
       <c r="E54" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F54" s="34" t="s">
         <v>95</v>
       </c>
       <c r="G54" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H54" s="34">
         <v>805</v>
       </c>
       <c r="I54" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="J54" s="55"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="56"/>
+        <v>174</v>
+      </c>
+      <c r="J54" s="54"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="55"/>
+      <c r="M54" s="55"/>
+      <c r="N54" s="55"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="22" t="s">
@@ -4192,19 +4254,19 @@
         <v>37</v>
       </c>
       <c r="G55" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H55" s="34">
         <v>805</v>
       </c>
       <c r="I55" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="J55" s="55"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="56"/>
-      <c r="M55" s="56"/>
-      <c r="N55" s="56"/>
+        <v>174</v>
+      </c>
+      <c r="J55" s="54"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="55"/>
+      <c r="M55" s="55"/>
+      <c r="N55" s="55"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="22" t="s">
@@ -4226,19 +4288,19 @@
         <v>97</v>
       </c>
       <c r="G56" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H56" s="34">
         <v>805</v>
       </c>
       <c r="I56" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="J56" s="57"/>
-      <c r="K56" s="56"/>
-      <c r="L56" s="56"/>
-      <c r="M56" s="56"/>
-      <c r="N56" s="56"/>
+        <v>174</v>
+      </c>
+      <c r="J56" s="56"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="55"/>
+      <c r="M56" s="55"/>
+      <c r="N56" s="55"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="22" t="s">
@@ -4254,25 +4316,25 @@
         <v>1</v>
       </c>
       <c r="E57" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F57" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G57" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H57" s="34">
         <v>805</v>
       </c>
       <c r="I57" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="J57" s="57"/>
-      <c r="K57" s="56"/>
-      <c r="L57" s="56"/>
-      <c r="M57" s="56"/>
-      <c r="N57" s="56"/>
+        <v>174</v>
+      </c>
+      <c r="J57" s="56"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="55"/>
+      <c r="M57" s="55"/>
+      <c r="N57" s="55"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="22" t="s">
@@ -4288,59 +4350,59 @@
         <v>2</v>
       </c>
       <c r="E58" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F58" s="34" t="s">
         <v>98</v>
       </c>
       <c r="G58" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H58" s="34">
         <v>805</v>
       </c>
       <c r="I58" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="J58" s="57"/>
-      <c r="K58" s="58"/>
-      <c r="L58" s="56"/>
-      <c r="M58" s="56"/>
-      <c r="N58" s="56"/>
+        <v>174</v>
+      </c>
+      <c r="J58" s="56"/>
+      <c r="K58" s="57"/>
+      <c r="L58" s="55"/>
+      <c r="M58" s="55"/>
+      <c r="N58" s="55"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B59" s="23" t="s">
-        <v>82</v>
+      <c r="A59" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="63" t="s">
+        <v>245</v>
       </c>
       <c r="C59" s="23">
         <v>57</v>
       </c>
       <c r="D59" s="34" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E59" s="34" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F59" s="34" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G59" s="34" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H59" s="34" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I59" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="J59" s="57"/>
-      <c r="K59" s="56"/>
-      <c r="L59" s="56"/>
-      <c r="M59" s="56"/>
-      <c r="N59" s="56"/>
+        <v>234</v>
+      </c>
+      <c r="J59" s="56"/>
+      <c r="K59" s="55"/>
+      <c r="L59" s="55"/>
+      <c r="M59" s="55"/>
+      <c r="N59" s="55"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="22" t="s">
@@ -4362,19 +4424,19 @@
         <v>29</v>
       </c>
       <c r="G60" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H60" s="34">
         <v>805</v>
       </c>
       <c r="I60" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="J60" s="57"/>
-      <c r="K60" s="56"/>
-      <c r="L60" s="56"/>
-      <c r="M60" s="56"/>
-      <c r="N60" s="56"/>
+        <v>174</v>
+      </c>
+      <c r="J60" s="56"/>
+      <c r="K60" s="55"/>
+      <c r="L60" s="55"/>
+      <c r="M60" s="55"/>
+      <c r="N60" s="55"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="22" t="s">
@@ -4396,19 +4458,19 @@
         <v>100</v>
       </c>
       <c r="G61" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H61" s="34">
         <v>805</v>
       </c>
       <c r="I61" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="J61" s="57"/>
-      <c r="K61" s="56"/>
-      <c r="L61" s="56"/>
-      <c r="M61" s="56"/>
-      <c r="N61" s="56"/>
+        <v>174</v>
+      </c>
+      <c r="J61" s="56"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="55"/>
+      <c r="M61" s="55"/>
+      <c r="N61" s="55"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="22" t="s">
@@ -4430,19 +4492,19 @@
         <v>26</v>
       </c>
       <c r="G62" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H62" s="34">
         <v>805</v>
       </c>
       <c r="I62" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="J62" s="57"/>
-      <c r="K62" s="56"/>
-      <c r="L62" s="56"/>
-      <c r="M62" s="56"/>
-      <c r="N62" s="56"/>
+        <v>174</v>
+      </c>
+      <c r="J62" s="56"/>
+      <c r="K62" s="55"/>
+      <c r="L62" s="55"/>
+      <c r="M62" s="55"/>
+      <c r="N62" s="55"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="22" t="s">
@@ -4464,19 +4526,19 @@
         <v>53</v>
       </c>
       <c r="G63" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H63" s="34">
         <v>805</v>
       </c>
       <c r="I63" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="J63" s="57"/>
-      <c r="K63" s="56"/>
-      <c r="L63" s="56"/>
-      <c r="M63" s="56"/>
-      <c r="N63" s="56"/>
+        <v>174</v>
+      </c>
+      <c r="J63" s="56"/>
+      <c r="K63" s="55"/>
+      <c r="L63" s="55"/>
+      <c r="M63" s="55"/>
+      <c r="N63" s="55"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="22" t="s">
@@ -4498,19 +4560,19 @@
         <v>46</v>
       </c>
       <c r="G64" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H64" s="34">
         <v>805</v>
       </c>
       <c r="I64" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="J64" s="57"/>
-      <c r="K64" s="58"/>
-      <c r="L64" s="56"/>
-      <c r="M64" s="56"/>
-      <c r="N64" s="56"/>
+        <v>174</v>
+      </c>
+      <c r="J64" s="56"/>
+      <c r="K64" s="57"/>
+      <c r="L64" s="55"/>
+      <c r="M64" s="55"/>
+      <c r="N64" s="55"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="22" t="s">
@@ -4526,25 +4588,25 @@
         <v>1</v>
       </c>
       <c r="E65" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="F65" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="F65" s="34" t="s">
-        <v>219</v>
-      </c>
       <c r="G65" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H65" s="34">
         <v>805</v>
       </c>
       <c r="I65" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="J65" s="57"/>
-      <c r="K65" s="58"/>
-      <c r="L65" s="56"/>
-      <c r="M65" s="56"/>
-      <c r="N65" s="56"/>
+        <v>174</v>
+      </c>
+      <c r="J65" s="56"/>
+      <c r="K65" s="57"/>
+      <c r="L65" s="55"/>
+      <c r="M65" s="55"/>
+      <c r="N65" s="55"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="22" t="s">
@@ -4560,25 +4622,25 @@
         <v>1</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F66" s="34" t="s">
         <v>101</v>
       </c>
       <c r="G66" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H66" s="34">
         <v>1206</v>
       </c>
       <c r="I66" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="J66" s="55"/>
-      <c r="K66" s="58"/>
-      <c r="L66" s="56"/>
-      <c r="M66" s="56"/>
-      <c r="N66" s="56"/>
+        <v>174</v>
+      </c>
+      <c r="J66" s="54"/>
+      <c r="K66" s="57"/>
+      <c r="L66" s="55"/>
+      <c r="M66" s="55"/>
+      <c r="N66" s="55"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="22" t="s">
@@ -4608,11 +4670,11 @@
       <c r="I67" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="J67" s="55"/>
-      <c r="K67" s="58"/>
-      <c r="L67" s="56"/>
-      <c r="M67" s="56"/>
-      <c r="N67" s="56"/>
+      <c r="J67" s="54"/>
+      <c r="K67" s="57"/>
+      <c r="L67" s="55"/>
+      <c r="M67" s="55"/>
+      <c r="N67" s="55"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="22" t="s">
@@ -4640,11 +4702,11 @@
       <c r="I68" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="J68" s="55"/>
-      <c r="K68" s="56"/>
-      <c r="L68" s="56"/>
-      <c r="M68" s="56"/>
-      <c r="N68" s="56"/>
+      <c r="J68" s="54"/>
+      <c r="K68" s="55"/>
+      <c r="L68" s="55"/>
+      <c r="M68" s="55"/>
+      <c r="N68" s="55"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="22" t="s">
@@ -4663,22 +4725,22 @@
         <v>55</v>
       </c>
       <c r="F69" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="G69" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="H69" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="I69" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="G69" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="H69" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="I69" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="J69" s="55"/>
-      <c r="K69" s="56"/>
-      <c r="L69" s="56"/>
-      <c r="M69" s="56"/>
-      <c r="N69" s="56"/>
+      <c r="J69" s="54"/>
+      <c r="K69" s="55"/>
+      <c r="L69" s="55"/>
+      <c r="M69" s="55"/>
+      <c r="N69" s="55"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="22" t="s">
@@ -4706,20 +4768,20 @@
         <v>109</v>
       </c>
       <c r="I70" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="J70" s="55"/>
-      <c r="K70" s="56"/>
-      <c r="L70" s="56"/>
-      <c r="M70" s="56"/>
-      <c r="N70" s="56"/>
+        <v>194</v>
+      </c>
+      <c r="J70" s="54"/>
+      <c r="K70" s="55"/>
+      <c r="L70" s="55"/>
+      <c r="M70" s="55"/>
+      <c r="N70" s="55"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B71" s="22" t="s">
-        <v>86</v>
+      <c r="B71" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="C71" s="23">
         <v>69</v>
@@ -4728,32 +4790,32 @@
         <v>1</v>
       </c>
       <c r="E71" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="F71" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="F71" s="34" t="s">
+      <c r="G71" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="G71" s="34" t="s">
+      <c r="H71" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="H71" s="34" t="s">
+      <c r="I71" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="I71" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="J71" s="55"/>
-      <c r="K71" s="56"/>
-      <c r="L71" s="56"/>
-      <c r="M71" s="56"/>
-      <c r="N71" s="56"/>
+      <c r="J71" s="54"/>
+      <c r="K71" s="55"/>
+      <c r="L71" s="55"/>
+      <c r="M71" s="55"/>
+      <c r="N71" s="55"/>
     </row>
     <row r="72" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B72" s="22" t="s">
-        <v>86</v>
+      <c r="B72" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="C72" s="23">
         <v>70</v>
@@ -4762,32 +4824,32 @@
         <v>1</v>
       </c>
       <c r="E72" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="F72" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="F72" s="34" t="s">
+      <c r="G72" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="H72" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="G72" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="H72" s="34" t="s">
+      <c r="I72" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="I72" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="J72" s="59"/>
-      <c r="K72" s="51"/>
-      <c r="L72" s="51"/>
-      <c r="M72" s="51"/>
-      <c r="N72" s="47"/>
+      <c r="J72" s="58"/>
+      <c r="K72" s="50"/>
+      <c r="L72" s="50"/>
+      <c r="M72" s="50"/>
+      <c r="N72" s="46"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B73" s="22" t="s">
-        <v>86</v>
+      <c r="A73" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="C73" s="23">
         <v>71</v>
@@ -4799,29 +4861,29 @@
         <v>6</v>
       </c>
       <c r="F73" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="G73" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="G73" s="34" t="s">
+      <c r="H73" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="H73" s="34" t="s">
+      <c r="I73" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="I73" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="J73" s="55"/>
-      <c r="K73" s="56"/>
-      <c r="L73" s="56"/>
-      <c r="M73" s="56"/>
-      <c r="N73" s="56"/>
+      <c r="J73" s="54"/>
+      <c r="K73" s="55"/>
+      <c r="L73" s="55"/>
+      <c r="M73" s="55"/>
+      <c r="N73" s="55"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B74" s="22" t="s">
-        <v>86</v>
+      <c r="B74" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="C74" s="23">
         <v>72</v>
@@ -4833,22 +4895,22 @@
         <v>51</v>
       </c>
       <c r="F74" s="34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G74" s="34">
         <v>7414</v>
       </c>
       <c r="H74" s="34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I74" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="J74" s="56"/>
-      <c r="K74" s="56"/>
-      <c r="L74" s="56"/>
-      <c r="M74" s="56"/>
-      <c r="N74" s="56"/>
+      <c r="J74" s="55"/>
+      <c r="K74" s="55"/>
+      <c r="L74" s="55"/>
+      <c r="M74" s="55"/>
+      <c r="N74" s="55"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="22" t="s">
@@ -4867,29 +4929,29 @@
         <v>69</v>
       </c>
       <c r="F75" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="G75" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="H75" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="G75" s="34" t="s">
+      <c r="I75" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="H75" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="I75" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="J75" s="56"/>
-      <c r="K75" s="56"/>
-      <c r="L75" s="56"/>
-      <c r="M75" s="56"/>
-      <c r="N75" s="56"/>
+      <c r="J75" s="55"/>
+      <c r="K75" s="55"/>
+      <c r="L75" s="55"/>
+      <c r="M75" s="55"/>
+      <c r="N75" s="55"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B76" s="22" t="s">
-        <v>86</v>
+      <c r="B76" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="C76" s="23">
         <v>74</v>
@@ -4901,22 +4963,22 @@
         <v>65</v>
       </c>
       <c r="F76" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="G76" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="H76" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="G76" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="H76" s="34" t="s">
+      <c r="I76" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="I76" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="J76" s="55"/>
-      <c r="K76" s="56"/>
-      <c r="L76" s="56"/>
-      <c r="M76" s="56"/>
-      <c r="N76" s="56"/>
+      <c r="J76" s="54"/>
+      <c r="K76" s="55"/>
+      <c r="L76" s="55"/>
+      <c r="M76" s="55"/>
+      <c r="N76" s="55"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="22" t="s">
@@ -4944,18 +5006,18 @@
         <v>14</v>
       </c>
       <c r="I77" s="34"/>
-      <c r="J77" s="55"/>
-      <c r="K77" s="56"/>
-      <c r="L77" s="56"/>
-      <c r="M77" s="56"/>
-      <c r="N77" s="56"/>
+      <c r="J77" s="54"/>
+      <c r="K77" s="55"/>
+      <c r="L77" s="55"/>
+      <c r="M77" s="55"/>
+      <c r="N77" s="55"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B78" s="22" t="s">
-        <v>86</v>
+      <c r="B78" s="63" t="s">
+        <v>248</v>
       </c>
       <c r="C78" s="23">
         <v>76</v>
@@ -4967,22 +5029,22 @@
         <v>16</v>
       </c>
       <c r="F78" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="G78" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="H78" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="I78" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="G78" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="H78" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="I78" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="J78" s="55"/>
-      <c r="K78" s="56"/>
-      <c r="L78" s="56"/>
-      <c r="M78" s="56"/>
-      <c r="N78" s="56"/>
+      <c r="J78" s="54"/>
+      <c r="K78" s="55"/>
+      <c r="L78" s="55"/>
+      <c r="M78" s="55"/>
+      <c r="N78" s="55"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="22" t="s">
@@ -5010,18 +5072,18 @@
         <v>107</v>
       </c>
       <c r="I79" s="34"/>
-      <c r="J79" s="55"/>
-      <c r="K79" s="56"/>
-      <c r="L79" s="56"/>
-      <c r="M79" s="56"/>
-      <c r="N79" s="56"/>
+      <c r="J79" s="54"/>
+      <c r="K79" s="55"/>
+      <c r="L79" s="55"/>
+      <c r="M79" s="55"/>
+      <c r="N79" s="55"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B80" s="22" t="s">
-        <v>86</v>
+      <c r="B80" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="C80" s="23">
         <v>78</v>
@@ -5033,29 +5095,29 @@
         <v>25</v>
       </c>
       <c r="F80" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="G80" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="H80" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="G80" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="H80" s="34" t="s">
+      <c r="I80" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="I80" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="J80" s="55"/>
-      <c r="K80" s="56"/>
-      <c r="L80" s="56"/>
-      <c r="M80" s="56"/>
-      <c r="N80" s="56"/>
+      <c r="J80" s="54"/>
+      <c r="K80" s="55"/>
+      <c r="L80" s="55"/>
+      <c r="M80" s="55"/>
+      <c r="N80" s="55"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B81" s="22" t="s">
-        <v>86</v>
+      <c r="B81" s="63" t="s">
+        <v>246</v>
       </c>
       <c r="C81" s="23">
         <v>79</v>
@@ -5063,33 +5125,33 @@
       <c r="D81" s="34">
         <v>1</v>
       </c>
-      <c r="E81" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="F81" s="63">
+      <c r="E81" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="F81" s="61">
         <v>0</v>
       </c>
-      <c r="G81" s="61" t="s">
-        <v>174</v>
+      <c r="G81" s="34" t="s">
+        <v>173</v>
       </c>
       <c r="H81" s="34">
         <v>805</v>
       </c>
       <c r="I81" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="J81" s="55"/>
-      <c r="K81" s="56"/>
-      <c r="L81" s="56"/>
-      <c r="M81" s="56"/>
-      <c r="N81" s="56"/>
+        <v>174</v>
+      </c>
+      <c r="J81" s="54"/>
+      <c r="K81" s="55"/>
+      <c r="L81" s="55"/>
+      <c r="M81" s="55"/>
+      <c r="N81" s="55"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="22" t="s">
-        <v>86</v>
+      <c r="B82" s="63" t="s">
+        <v>246</v>
       </c>
       <c r="C82" s="23">
         <v>80</v>
@@ -5097,11 +5159,11 @@
       <c r="D82" s="34">
         <v>1</v>
       </c>
-      <c r="E82" s="60" t="s">
-        <v>229</v>
+      <c r="E82" s="59" t="s">
+        <v>227</v>
       </c>
       <c r="F82" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G82" s="34" t="s">
         <v>56</v>
@@ -5112,18 +5174,18 @@
       <c r="I82" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="J82" s="55"/>
-      <c r="K82" s="56"/>
-      <c r="L82" s="56"/>
-      <c r="M82" s="56"/>
-      <c r="N82" s="56"/>
+      <c r="J82" s="54"/>
+      <c r="K82" s="55"/>
+      <c r="L82" s="55"/>
+      <c r="M82" s="55"/>
+      <c r="N82" s="55"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B83" s="22" t="s">
-        <v>86</v>
+      <c r="B83" s="63" t="s">
+        <v>246</v>
       </c>
       <c r="C83" s="23">
         <v>81</v>
@@ -5132,89 +5194,114 @@
         <v>1</v>
       </c>
       <c r="E83" s="34" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F83" s="34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G83" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H83" s="34">
         <v>805</v>
       </c>
       <c r="I83" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="J83" s="55"/>
-      <c r="K83" s="56"/>
-      <c r="L83" s="56"/>
-      <c r="M83" s="56"/>
-      <c r="N83" s="56"/>
+        <v>174</v>
+      </c>
+      <c r="J83" s="54"/>
+      <c r="K83" s="55"/>
+      <c r="L83" s="55"/>
+      <c r="M83" s="55"/>
+      <c r="N83" s="55"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H84" s="64"/>
+      <c r="H84" s="62"/>
     </row>
   </sheetData>
   <phoneticPr fontId="48" type="noConversion"/>
   <conditionalFormatting sqref="A66:A70">
-    <cfRule type="containsText" dxfId="15" priority="32" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="20" priority="46" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",A66)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:B80">
-    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="P">
+  <conditionalFormatting sqref="A7:A8 A74:A81 A60:A72 A52:A58 A10:A50 B41 B45 B47:B48 B51 B59 B78 B81:B83">
+    <cfRule type="containsText" dxfId="19" priority="25" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",A7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="18" priority="30" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",A7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",B29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
-    <cfRule type="containsText" dxfId="11" priority="24" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",B67)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
-    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",B70)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A81:B81">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",A81)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",A81)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82:B83">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",B82)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",B82)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",A82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",A82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",A83)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",A83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",A73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",A73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",A59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",A59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",A51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",A51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",A9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",A9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:B40">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",B7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42:B44">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",B42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B79:B80 B60:B77 B52:B58 B49:B50 B46">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",B46)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",A83)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO",B46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5226,8 +5313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5261,50 +5348,58 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="38">
+        <v>45020</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B4" s="39">
-        <v>45020</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>223</v>
-      </c>
     </row>
     <row r="5" spans="1:4" ht="102" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
-        <v>228</v>
-      </c>
-      <c r="B5" s="42">
+      <c r="A5" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" s="41">
         <v>45076</v>
       </c>
-      <c r="C5" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>246</v>
+      <c r="C5" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="26"/>
+      <c r="A6" s="40">
+        <v>3</v>
+      </c>
+      <c r="B6" s="41">
+        <v>45077</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="37"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="36"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="28"/>

--- a/02.Hardware/MK2 2040/01.EDCPSU/BOM/EDCPSU_MK2_RP2040_BOM-SETI.xlsx
+++ b/02.Hardware/MK2 2040/01.EDCPSU/BOM/EDCPSU_MK2_RP2040_BOM-SETI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Team Dropbox\JRODRIGUEZ\Repositorios\07.MK2\02.Hardware\MK2 2040\01.EDCPSU\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C268A14E-EFDB-49E2-96EC-74BFC4184671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A299133D-16E2-432A-8DEB-5A7FAE2528B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="253">
   <si>
     <t>Qty</t>
   </si>
@@ -693,9 +693,6 @@
     <t>130R</t>
   </si>
   <si>
-    <t>R22, R26, R31, R33, R61, R99</t>
-  </si>
-  <si>
     <t>JRC</t>
   </si>
   <si>
@@ -735,9 +732,6 @@
     <t>Current sense amplifier</t>
   </si>
   <si>
-    <t>R2, R19, R20, R25, R27, R46, R59, R57</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -781,11 +775,23 @@
   </si>
   <si>
     <t>Valor</t>
+  </si>
+  <si>
+    <t>Se añade la columna de Cambios</t>
+  </si>
+  <si>
+    <t>BOM VERSION v3</t>
+  </si>
+  <si>
+    <t>0R</t>
+  </si>
+  <si>
+    <t>R2, R19, R20, R25, R27, R46, R59</t>
   </si>
   <si>
     <t>Se añade el pos 79 con el part R15
 Se añade la pos 80 con el part D3 con el valor N.C
-Se añade a la pos 43 el part 57 aumentando su Qty.
+Se añade a la pos 44 el part 57 aumentando su Qty.
 Se cambia el value de la pos 76  a LM4040C30FTA
 Se cambia el valor de la pos 39 part R12 a 0,025mOhm
 Se aumenta la pos 46 con el part R41 
@@ -793,10 +799,7 @@
 Se añade la pos 81 cambia el valor de R11 a 15K</t>
   </si>
   <si>
-    <t>Se añade la columna de Cambios</t>
-  </si>
-  <si>
-    <t>BOM VERSION v3</t>
+    <t>R22, R26, R31, R33, R61, R99, R57</t>
   </si>
 </sst>
 </file>
@@ -2523,8 +2526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2547,7 +2550,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="E1" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.2">
@@ -2571,7 +2574,7 @@
         <v>85</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>93</v>
@@ -3134,7 +3137,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>56</v>
@@ -3704,7 +3707,7 @@
         <v>8</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F39" s="34" t="s">
         <v>20</v>
@@ -3763,7 +3766,7 @@
         <v>86</v>
       </c>
       <c r="B41" s="63" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C41" s="23">
         <v>39</v>
@@ -3775,7 +3778,7 @@
         <v>17</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G41" s="34" t="s">
         <v>175</v>
@@ -3874,7 +3877,7 @@
         <v>7</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F44" s="34" t="s">
         <v>125</v>
@@ -3898,8 +3901,8 @@
       <c r="A45" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="63" t="s">
-        <v>247</v>
+      <c r="B45" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="C45" s="23">
         <v>43</v>
@@ -3908,7 +3911,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="34" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="F45" s="34" t="s">
         <v>28</v>
@@ -3932,8 +3935,8 @@
       <c r="A46" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="23" t="s">
-        <v>82</v>
+      <c r="B46" s="63" t="s">
+        <v>245</v>
       </c>
       <c r="C46" s="23">
         <v>44</v>
@@ -3942,7 +3945,7 @@
         <v>6</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="F46" s="34" t="s">
         <v>181</v>
@@ -3967,7 +3970,7 @@
         <v>86</v>
       </c>
       <c r="B47" s="63" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C47" s="23">
         <v>45</v>
@@ -3976,7 +3979,7 @@
         <v>2</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F47" s="34" t="s">
         <v>23</v>
@@ -4001,7 +4004,7 @@
         <v>86</v>
       </c>
       <c r="B48" s="63" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C48" s="23">
         <v>46</v>
@@ -4010,7 +4013,7 @@
         <v>2</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F48" s="34" t="s">
         <v>182</v>
@@ -4103,28 +4106,28 @@
         <v>82</v>
       </c>
       <c r="B51" s="63" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C51" s="23">
         <v>49</v>
       </c>
       <c r="D51" s="34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F51" s="34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G51" s="34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H51" s="34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I51" s="34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J51" s="44"/>
       <c r="K51" s="53"/>
@@ -4146,7 +4149,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="34" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F52" s="34" t="s">
         <v>185</v>
@@ -4375,28 +4378,28 @@
         <v>82</v>
       </c>
       <c r="B59" s="63" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C59" s="23">
         <v>57</v>
       </c>
       <c r="D59" s="34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E59" s="34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F59" s="34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G59" s="34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H59" s="34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I59" s="34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J59" s="56"/>
       <c r="K59" s="55"/>
@@ -4929,16 +4932,16 @@
         <v>69</v>
       </c>
       <c r="F75" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="G75" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="G75" s="34" t="s">
+      <c r="H75" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="H75" s="34" t="s">
+      <c r="I75" s="34" t="s">
         <v>231</v>
-      </c>
-      <c r="I75" s="34" t="s">
-        <v>232</v>
       </c>
       <c r="J75" s="55"/>
       <c r="K75" s="55"/>
@@ -5017,7 +5020,7 @@
         <v>86</v>
       </c>
       <c r="B78" s="63" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C78" s="23">
         <v>76</v>
@@ -5029,16 +5032,16 @@
         <v>16</v>
       </c>
       <c r="F78" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="G78" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="H78" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="I78" s="34" t="s">
         <v>235</v>
-      </c>
-      <c r="G78" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="H78" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="I78" s="34" t="s">
-        <v>237</v>
       </c>
       <c r="J78" s="54"/>
       <c r="K78" s="55"/>
@@ -5117,7 +5120,7 @@
         <v>86</v>
       </c>
       <c r="B81" s="63" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C81" s="23">
         <v>79</v>
@@ -5126,10 +5129,10 @@
         <v>1</v>
       </c>
       <c r="E81" s="59" t="s">
-        <v>224</v>
-      </c>
-      <c r="F81" s="61">
-        <v>0</v>
+        <v>223</v>
+      </c>
+      <c r="F81" s="61" t="s">
+        <v>249</v>
       </c>
       <c r="G81" s="34" t="s">
         <v>173</v>
@@ -5151,7 +5154,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="63" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C82" s="23">
         <v>80</v>
@@ -5160,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="E82" s="59" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F82" s="34" t="s">
         <v>125</v>
@@ -5185,7 +5188,7 @@
         <v>86</v>
       </c>
       <c r="B83" s="63" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C83" s="23">
         <v>81</v>
@@ -5194,10 +5197,10 @@
         <v>1</v>
       </c>
       <c r="E83" s="34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F83" s="34" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G83" s="34" t="s">
         <v>173</v>
@@ -5224,7 +5227,7 @@
       <formula>NOT(ISERROR(SEARCH("NO",A66)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:A8 A74:A81 A60:A72 A52:A58 A10:A50 B41 B45 B47:B48 B51 B59 B78 B81:B83">
+  <conditionalFormatting sqref="A7:A8 A74:A81 A60:A72 A52:A58 A10:A50 B41 B51 B59 B78 B81:B83 B46:B48">
     <cfRule type="containsText" dxfId="19" priority="25" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",A7)))</formula>
     </cfRule>
@@ -5288,7 +5291,7 @@
       <formula>NOT(ISERROR(SEARCH("NO",B7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42:B44">
+  <conditionalFormatting sqref="B42:B45">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",B42)))</formula>
     </cfRule>
@@ -5296,12 +5299,12 @@
       <formula>NOT(ISERROR(SEARCH("NO",B42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B79:B80 B60:B77 B52:B58 B49:B50 B46">
+  <conditionalFormatting sqref="B79:B80 B60:B77 B52:B58 B49:B50">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",B46)))</formula>
+      <formula>NOT(ISERROR(SEARCH("P",B49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",B46)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO",B49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5314,7 +5317,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5349,30 +5352,30 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B4" s="38">
         <v>45020</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B5" s="41">
         <v>45076</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -5383,10 +5386,10 @@
         <v>45077</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">

--- a/02.Hardware/MK2 2040/01.EDCPSU/BOM/EDCPSU_MK2_RP2040_BOM-SETI.xlsx
+++ b/02.Hardware/MK2 2040/01.EDCPSU/BOM/EDCPSU_MK2_RP2040_BOM-SETI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reozen/Team Dropbox/David Garrido/MUSOTOKU/PROJECTS/MK2/02.Hardware/MK2 2040/01.EDCPSU/BOM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Team Dropbox\JRODRIGUEZ\Repositorios\07.MK2\02.Hardware\MK2 2040\01.EDCPSU\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3E020F-61B5-C641-B833-3A81E6C063B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E865E90-57FE-4E7B-89D6-639619F46BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="34400" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EDCPSUMK2" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="291">
   <si>
     <t>Qty</t>
   </si>
@@ -319,12 +319,6 @@
     <t>S1</t>
   </si>
   <si>
-    <t>COST (25pcs)</t>
-  </si>
-  <si>
-    <t>COST (100pcs)</t>
-  </si>
-  <si>
     <t>DIGIKEY</t>
   </si>
   <si>
@@ -332,9 +326,6 @@
   </si>
   <si>
     <t>Details</t>
-  </si>
-  <si>
-    <t>COST per Board (25pcs)</t>
   </si>
   <si>
     <t>Assembly?</t>
@@ -803,9 +794,6 @@
     <t>https://www.digikey.es/es/products/detail/liteon/LTV-816S/385831?s=N4IgTCBcDaIIwDYAMBaOBmBcUFYUDkAREAXQF8g</t>
   </si>
   <si>
-    <t>https://www.digikey.es/es/products/detail/nexperia-usa-inc/2N7002PW-115/2296328?s=N4IgTCBcDaIKwDYAcBaOBOJB2FBGFAcgCIgC6AvkA</t>
-  </si>
-  <si>
     <t>https://www.digikey.es/es/products/detail/raspberry-pi/SC0914-13/14306010?s=N4IgTCBcDaIE4AcwAYAsyQF0C%2BQ</t>
   </si>
   <si>
@@ -972,16 +960,47 @@
   </si>
   <si>
     <t>BOM VERSION v4</t>
+  </si>
+  <si>
+    <t>COST (500pcs)</t>
+  </si>
+  <si>
+    <t>COST per Board (500 pcs)</t>
+  </si>
+  <si>
+    <t>Se añaden la columna de precios por unidad en compras de 500 y el coste de la placa, multiplicando por el numero de unidades en la placa</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/en/products/detail/samsung-electro-mechanics/CL32B475KBUYNNE/3886950</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/en/products/detail/murata-electronics/GRT21BR61H475ME13L/5416817</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/en/products/detail/samsung-electro-mechanics/CL31A106MBHNNNE/5961220</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/en/products/detail/yageo/RL2512FK-070R025L/3885847</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/en/products/detail/bourns-inc/CRL1206-FW-R100ELF/3593165</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/en/products/detail/murata-electronics/GRM21BR61A226ME51L/5027595</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/en/products/detail/samsung-electro-mechanics/CL32A226KPJNNNE/3889030</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-C0A]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-C0A]_-;\-* #,##0.00\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
   </numFmts>
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1303,20 +1322,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="2"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="2"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1334,8 +1339,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1536,6 +1546,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1907,7 +1923,7 @@
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2020,9 +2036,6 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="9" fontId="22" fillId="35" borderId="13" xfId="83" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2031,9 +2044,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="35" borderId="13" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="13" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2050,9 +2060,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2084,9 +2091,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2096,93 +2100,108 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="84" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="84"/>
+    <xf numFmtId="165" fontId="0" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="35" borderId="13" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="49" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="85">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis1 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis4 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis5 2" xfId="76" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis6 2" xfId="80" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis1 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis2 2" xfId="65" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis3 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis4 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis5 2" xfId="77" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis6 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis1 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis2 2" xfId="66" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis3 2" xfId="70" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis4 2" xfId="74" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5 2" xfId="78" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Buena 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cálculo 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Celda vinculada 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Encabezado 4 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Énfasis1 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Énfasis2 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Énfasis3 2" xfId="67" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Énfasis4 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Énfasis5 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Énfasis6 2" xfId="79" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Entrada 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="84" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="84" builtinId="8"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Incorrecto 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Neutral 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Notas 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Porcentaje 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Salida 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Texto explicativo 2" xfId="57" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Título 1 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Título 3 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Total 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="25">
     <dxf>
@@ -2450,14 +2469,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2495,9 +2510,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2530,9 +2545,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2565,9 +2597,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2741,60 +2790,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N84"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="9" customWidth="1"/>
     <col min="3" max="3" width="4" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="114.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.7109375" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="68" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="E1" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+      <c r="K1"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="E2" s="5">
         <v>45078</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K3"/>
+    </row>
+    <row r="4" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E4" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+      <c r="K4"/>
+    </row>
+    <row r="5" spans="1:13" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="K5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>0</v>
@@ -2815,27 +2868,24 @@
         <v>5</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>71</v>
+        <v>281</v>
       </c>
       <c r="L6" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="M6" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="20">
         <v>2</v>
@@ -2847,31 +2897,35 @@
         <v>57</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="55" t="s">
-        <v>223</v>
-      </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-    </row>
-    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+      <c r="J7" s="40"/>
+      <c r="K7" s="65">
+        <v>0.48</v>
+      </c>
+      <c r="L7" s="65">
+        <f>K7*D7</f>
+        <v>0.48</v>
+      </c>
+      <c r="M7" s="52" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" s="20">
         <v>3</v>
@@ -2882,30 +2936,36 @@
       <c r="E8" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="30" t="s">
-        <v>101</v>
+      <c r="F8" s="70" t="s">
+        <v>98</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I8" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="41"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-    </row>
-    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="J8" s="40"/>
+      <c r="K8" s="65">
+        <v>0.10598</v>
+      </c>
+      <c r="L8" s="65">
+        <f t="shared" ref="L8:L71" si="0">K8*D8</f>
+        <v>0.31794</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" s="20">
         <v>4</v>
@@ -2914,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>65</v>
@@ -2923,23 +2983,25 @@
         <v>13</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="42"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-    </row>
-    <row r="10" spans="1:14" ht="56" x14ac:dyDescent="0.15">
+      <c r="J9" s="41"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="37"/>
+    </row>
+    <row r="10" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" s="20">
         <v>5</v>
@@ -2948,32 +3010,34 @@
         <v>34</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G10" s="30" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I10" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="42"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-    </row>
-    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="J10" s="41"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="37"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C11" s="20">
         <v>6</v>
@@ -2982,32 +3046,38 @@
         <v>4</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="F11" s="70" t="s">
+        <v>103</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I11" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="42"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-    </row>
-    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="J11" s="41"/>
+      <c r="K11" s="65">
+        <v>6.9220000000000004E-2</v>
+      </c>
+      <c r="L11" s="65">
+        <f t="shared" si="0"/>
+        <v>0.27688000000000001</v>
+      </c>
+      <c r="M11" s="37" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C12" s="20">
         <v>7</v>
@@ -3016,32 +3086,38 @@
         <v>2</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>125</v>
+        <v>104</v>
+      </c>
+      <c r="F12" s="70" t="s">
+        <v>122</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I12" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="42"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-    </row>
-    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="J12" s="41"/>
+      <c r="K12" s="65">
+        <v>5.6300000000000003E-2</v>
+      </c>
+      <c r="L12" s="65">
+        <f t="shared" si="0"/>
+        <v>0.11260000000000001</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C13" s="20">
         <v>8</v>
@@ -3050,32 +3126,34 @@
         <v>1</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G13" s="30" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I13" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="42"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-    </row>
-    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="J13" s="41"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="37"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" s="20">
         <v>9</v>
@@ -3087,29 +3165,31 @@
         <v>24</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G14" s="30" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I14" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="42"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="J14" s="41"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="37"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C15" s="20">
         <v>10</v>
@@ -3121,29 +3201,31 @@
         <v>17</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G15" s="30" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I15" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="42"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-    </row>
-    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="J15" s="41"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="37"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C16" s="20">
         <v>11</v>
@@ -3154,30 +3236,36 @@
       <c r="E16" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="30" t="s">
-        <v>126</v>
+      <c r="F16" s="70" t="s">
+        <v>123</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I16" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="42"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-    </row>
-    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="J16" s="41"/>
+      <c r="K16" s="65">
+        <v>0.12361999999999999</v>
+      </c>
+      <c r="L16" s="65">
+        <f t="shared" si="0"/>
+        <v>0.49447999999999998</v>
+      </c>
+      <c r="M16" s="37" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17" s="20">
         <v>12</v>
@@ -3186,32 +3274,34 @@
         <v>0</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G17" s="30" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I17" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="42"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-    </row>
-    <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="J17" s="41"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="37"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" s="20">
         <v>13</v>
@@ -3220,32 +3310,34 @@
         <v>2</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G18" s="30" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I18" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="42"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-    </row>
-    <row r="19" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="J18" s="41"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="37"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C19" s="20">
         <v>14</v>
@@ -3254,32 +3346,38 @@
         <v>2</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>117</v>
+        <v>113</v>
+      </c>
+      <c r="F19" s="70" t="s">
+        <v>114</v>
       </c>
       <c r="G19" s="30" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I19" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="42"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-    </row>
-    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="J19" s="41"/>
+      <c r="K19" s="65">
+        <v>4.2759999999999999E-2</v>
+      </c>
+      <c r="L19" s="65">
+        <f t="shared" si="0"/>
+        <v>8.5519999999999999E-2</v>
+      </c>
+      <c r="M19" s="37" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C20" s="20">
         <v>15</v>
@@ -3288,32 +3386,34 @@
         <v>8</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G20" s="30" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I20" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="42"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-    </row>
-    <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="J20" s="41"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="37"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="54" t="s">
-        <v>281</v>
+        <v>73</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>277</v>
       </c>
       <c r="C21" s="20">
         <v>16</v>
@@ -3325,31 +3425,35 @@
         <v>53</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="J21" s="42"/>
-      <c r="K21" s="67" t="s">
-        <v>278</v>
-      </c>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-    </row>
-    <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+      <c r="J21" s="41"/>
+      <c r="K21" s="65">
+        <v>0.10872</v>
+      </c>
+      <c r="L21" s="65">
+        <f t="shared" si="0"/>
+        <v>0.10872</v>
+      </c>
+      <c r="M21" s="63" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C22" s="20">
         <v>17</v>
@@ -3358,7 +3462,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>49</v>
@@ -3372,20 +3476,24 @@
       <c r="I22" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="J22" s="42"/>
-      <c r="K22" s="55" t="s">
-        <v>224</v>
-      </c>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-    </row>
-    <row r="23" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="J22" s="41"/>
+      <c r="K22" s="65">
+        <v>0.1145</v>
+      </c>
+      <c r="L22" s="65">
+        <f t="shared" si="0"/>
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="M22" s="52" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C23" s="20">
         <v>18</v>
@@ -3394,34 +3502,38 @@
         <v>1</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H23" s="30" t="s">
         <v>50</v>
       </c>
       <c r="I23" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="J23" s="42"/>
-      <c r="K23" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-    </row>
-    <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+      <c r="J23" s="41"/>
+      <c r="K23" s="65">
+        <v>0.17976</v>
+      </c>
+      <c r="L23" s="65">
+        <f t="shared" si="0"/>
+        <v>0.17976</v>
+      </c>
+      <c r="M23" s="63" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C24" s="20">
         <v>19</v>
@@ -3430,34 +3542,38 @@
         <v>1</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="J24" s="42"/>
-      <c r="K24" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-    </row>
-    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+      <c r="J24" s="41"/>
+      <c r="K24" s="65">
+        <v>0.1181</v>
+      </c>
+      <c r="L24" s="65">
+        <f t="shared" si="0"/>
+        <v>0.1181</v>
+      </c>
+      <c r="M24" s="63" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C25" s="20">
         <v>20</v>
@@ -3466,30 +3582,32 @@
         <v>0</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H25" s="30" t="s">
         <v>52</v>
       </c>
       <c r="I25" s="30"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-    </row>
-    <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="J25" s="41"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="37"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="54" t="s">
-        <v>210</v>
+        <v>73</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>207</v>
       </c>
       <c r="C26" s="20">
         <v>21</v>
@@ -3501,31 +3619,35 @@
         <v>66</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="J26" s="42"/>
-      <c r="K26" s="55" t="s">
-        <v>274</v>
-      </c>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-    </row>
-    <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+      <c r="J26" s="41"/>
+      <c r="K26" s="65">
+        <v>0.12508</v>
+      </c>
+      <c r="L26" s="65">
+        <f t="shared" si="0"/>
+        <v>0.12508</v>
+      </c>
+      <c r="M26" s="52" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C27" s="20">
         <v>22</v>
@@ -3534,34 +3656,38 @@
         <v>1</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I27" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="J27" s="43"/>
-      <c r="K27" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-    </row>
-    <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+      <c r="J27" s="42"/>
+      <c r="K27" s="65">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="L27" s="65">
+        <f t="shared" si="0"/>
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="M27" s="52" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C28" s="20">
         <v>25</v>
@@ -3570,34 +3696,38 @@
         <v>1</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I28" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="J28" s="43"/>
-      <c r="K28" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-    </row>
-    <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+      <c r="J28" s="42"/>
+      <c r="K28" s="65">
+        <v>1.0803</v>
+      </c>
+      <c r="L28" s="65">
+        <f t="shared" si="0"/>
+        <v>1.0803</v>
+      </c>
+      <c r="M28" s="52" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C29" s="20">
         <v>26</v>
@@ -3618,18 +3748,20 @@
         <v>55</v>
       </c>
       <c r="I29" s="30"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-    </row>
-    <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="J29" s="42"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="37"/>
+    </row>
+    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C30" s="20">
         <v>27</v>
@@ -3638,34 +3770,38 @@
         <v>1</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="J30" s="43"/>
-      <c r="K30" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-    </row>
-    <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+      <c r="J30" s="42"/>
+      <c r="K30" s="65">
+        <v>0.64117000000000002</v>
+      </c>
+      <c r="L30" s="65">
+        <f t="shared" si="0"/>
+        <v>0.64117000000000002</v>
+      </c>
+      <c r="M30" s="63" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C31" s="20">
         <v>29</v>
@@ -3677,31 +3813,35 @@
         <v>43</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I31" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="J31" s="43"/>
-      <c r="K31" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="40"/>
-    </row>
-    <row r="32" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+      <c r="J31" s="42"/>
+      <c r="K31" s="66">
+        <v>0.12452000000000001</v>
+      </c>
+      <c r="L31" s="65">
+        <f t="shared" si="0"/>
+        <v>0.12452000000000001</v>
+      </c>
+      <c r="M31" s="63" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C32" s="20">
         <v>30</v>
@@ -3716,26 +3856,30 @@
         <v>36</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H32" s="30" t="s">
         <v>37</v>
       </c>
       <c r="I32" s="30"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="40"/>
-    </row>
-    <row r="33" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="J32" s="42"/>
+      <c r="K32" s="66">
+        <v>0.72116000000000002</v>
+      </c>
+      <c r="L32" s="65">
+        <f t="shared" si="0"/>
+        <v>0.72116000000000002</v>
+      </c>
+      <c r="M32" s="52" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C33" s="20">
         <v>31</v>
@@ -3750,28 +3894,32 @@
         <v>63</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I33" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="J33" s="43"/>
-      <c r="K33" t="s">
-        <v>241</v>
-      </c>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="40"/>
-    </row>
-    <row r="34" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>236</v>
+      </c>
+      <c r="J33" s="42"/>
+      <c r="K33" s="66">
+        <v>2.3E-2</v>
+      </c>
+      <c r="L33" s="65">
+        <f t="shared" si="0"/>
+        <v>0.11499999999999999</v>
+      </c>
+      <c r="M33" s="64" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="54" t="s">
-        <v>210</v>
+        <v>73</v>
+      </c>
+      <c r="B34" s="51" t="s">
+        <v>207</v>
       </c>
       <c r="C34" s="20">
         <v>32</v>
@@ -3783,31 +3931,35 @@
         <v>7</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I34" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="J34" s="43"/>
-      <c r="K34" s="55" t="s">
-        <v>266</v>
-      </c>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="40"/>
-    </row>
-    <row r="35" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>261</v>
+      </c>
+      <c r="J34" s="42"/>
+      <c r="K34" s="66">
+        <v>3.4189999999999998E-2</v>
+      </c>
+      <c r="L34" s="65">
+        <f t="shared" si="0"/>
+        <v>3.4189999999999998E-2</v>
+      </c>
+      <c r="M34" s="52" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="54" t="s">
-        <v>222</v>
+        <v>70</v>
+      </c>
+      <c r="B35" s="51" t="s">
+        <v>219</v>
       </c>
       <c r="C35" s="20">
         <v>33</v>
@@ -3816,32 +3968,34 @@
         <v>0</v>
       </c>
       <c r="E35" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="I35" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="F35" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="G35" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="H35" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="I35" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="J35" s="45"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-    </row>
-    <row r="36" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="J35" s="43"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="53"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C36" s="20">
         <v>34</v>
@@ -3859,25 +4013,29 @@
         <v>59</v>
       </c>
       <c r="H36" s="30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I36" s="30" t="s">
         <v>61</v>
       </c>
       <c r="J36" s="39"/>
-      <c r="K36" s="55" t="s">
-        <v>227</v>
-      </c>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-    </row>
-    <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="K36" s="65">
+        <v>0.1341</v>
+      </c>
+      <c r="L36" s="65">
+        <f t="shared" si="0"/>
+        <v>0.1341</v>
+      </c>
+      <c r="M36" s="52" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C37" s="20">
         <v>35</v>
@@ -3889,31 +4047,35 @@
         <v>28</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G37" s="30" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="I37" s="58" t="s">
-        <v>269</v>
-      </c>
-      <c r="J37" s="43"/>
-      <c r="K37" t="s">
-        <v>267</v>
-      </c>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="40"/>
-    </row>
-    <row r="38" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+      <c r="I37" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="J37" s="42"/>
+      <c r="K37" s="66">
+        <v>0.12822</v>
+      </c>
+      <c r="L37" s="65">
+        <f t="shared" si="0"/>
+        <v>0.12822</v>
+      </c>
+      <c r="M37" s="64" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C38" s="20">
         <v>36</v>
@@ -3922,34 +4084,38 @@
         <v>4</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F38" s="30" t="s">
         <v>32</v>
       </c>
       <c r="G38" s="30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H38" s="30" t="s">
         <v>33</v>
       </c>
       <c r="I38" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="J38" s="43"/>
-      <c r="K38" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="40"/>
-    </row>
-    <row r="39" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>243</v>
+      </c>
+      <c r="J38" s="42"/>
+      <c r="K38" s="66">
+        <v>8.7800000000000003E-2</v>
+      </c>
+      <c r="L38" s="65">
+        <f t="shared" si="0"/>
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="M38" s="63" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C39" s="20">
         <v>37</v>
@@ -3958,34 +4124,34 @@
         <v>8</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F39" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G39" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H39" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I39" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="J39" s="43"/>
-      <c r="K39" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="40"/>
-    </row>
-    <row r="40" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="J39" s="42"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="52"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C40" s="20">
         <v>38</v>
@@ -4000,26 +4166,28 @@
         <v>25</v>
       </c>
       <c r="G40" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H40" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I40" s="30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J40" s="39"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-    </row>
-    <row r="41" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="K40" s="65"/>
+      <c r="L40" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="55"/>
+    </row>
+    <row r="41" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="54" t="s">
-        <v>210</v>
+        <v>73</v>
+      </c>
+      <c r="B41" s="51" t="s">
+        <v>207</v>
       </c>
       <c r="C41" s="20">
         <v>39</v>
@@ -4030,30 +4198,36 @@
       <c r="E41" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="30" t="s">
-        <v>188</v>
+      <c r="F41" s="70" t="s">
+        <v>185</v>
       </c>
       <c r="G41" s="30" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H41" s="30" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I41" s="30" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J41" s="39"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="40"/>
-    </row>
-    <row r="42" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="K41" s="66">
+        <v>0.18551999999999999</v>
+      </c>
+      <c r="L41" s="65">
+        <f t="shared" si="0"/>
+        <v>0.18551999999999999</v>
+      </c>
+      <c r="M41" s="37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C42" s="20">
         <v>40</v>
@@ -4062,32 +4236,34 @@
         <v>5</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F42" s="30" t="s">
         <v>29</v>
       </c>
       <c r="G42" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H42" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I42" s="30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J42" s="39"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="40"/>
-    </row>
-    <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="K42" s="66"/>
+      <c r="L42" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="53"/>
+    </row>
+    <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C43" s="20">
         <v>41</v>
@@ -4096,32 +4272,34 @@
         <v>7</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F43" s="30" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G43" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H43" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I43" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="J43" s="43"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="40"/>
-    </row>
-    <row r="44" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="J43" s="42"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="53"/>
+    </row>
+    <row r="44" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C44" s="20">
         <v>42</v>
@@ -4130,32 +4308,34 @@
         <v>7</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F44" s="30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G44" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H44" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I44" s="30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J44" s="39"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="40"/>
-    </row>
-    <row r="45" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="K44" s="66"/>
+      <c r="L44" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="53"/>
+    </row>
+    <row r="45" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" s="54" t="s">
-        <v>209</v>
+        <v>73</v>
+      </c>
+      <c r="B45" s="51" t="s">
+        <v>206</v>
       </c>
       <c r="C45" s="20">
         <v>43</v>
@@ -4164,32 +4344,34 @@
         <v>7</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F45" s="30" t="s">
         <v>21</v>
       </c>
       <c r="G45" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H45" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I45" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="J45" s="43"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="40"/>
-    </row>
-    <row r="46" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="J45" s="42"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="53"/>
+    </row>
+    <row r="46" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="54" t="s">
-        <v>209</v>
+        <v>73</v>
+      </c>
+      <c r="B46" s="51" t="s">
+        <v>206</v>
       </c>
       <c r="C46" s="20">
         <v>44</v>
@@ -4198,32 +4380,34 @@
         <v>7</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F46" s="30" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G46" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H46" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I46" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="J46" s="43"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="44"/>
-      <c r="M46" s="44"/>
-      <c r="N46" s="40"/>
-    </row>
-    <row r="47" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="J46" s="42"/>
+      <c r="K46" s="66"/>
+      <c r="L46" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="55"/>
+    </row>
+    <row r="47" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" s="54" t="s">
-        <v>209</v>
+        <v>73</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>206</v>
       </c>
       <c r="C47" s="20">
         <v>45</v>
@@ -4232,32 +4416,34 @@
         <v>2</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F47" s="30" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I47" s="30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J47" s="39"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="40"/>
-    </row>
-    <row r="48" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="K47" s="66"/>
+      <c r="L47" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="53"/>
+    </row>
+    <row r="48" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B48" s="54" t="s">
-        <v>209</v>
+        <v>73</v>
+      </c>
+      <c r="B48" s="51" t="s">
+        <v>206</v>
       </c>
       <c r="C48" s="20">
         <v>46</v>
@@ -4266,32 +4452,34 @@
         <v>2</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F48" s="30" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G48" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I48" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="J48" s="43"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="44"/>
-      <c r="M48" s="44"/>
-      <c r="N48" s="40"/>
-    </row>
-    <row r="49" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="J48" s="42"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="53"/>
+    </row>
+    <row r="49" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C49" s="20">
         <v>47</v>
@@ -4300,32 +4488,34 @@
         <v>2</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F49" s="30" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G49" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H49" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I49" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="J49" s="43"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="40"/>
-      <c r="N49" s="40"/>
-    </row>
-    <row r="50" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="J49" s="42"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="53"/>
+    </row>
+    <row r="50" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C50" s="20">
         <v>48</v>
@@ -4340,26 +4530,28 @@
         <v>41</v>
       </c>
       <c r="G50" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H50" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I50" s="30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J50" s="39"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="40"/>
-      <c r="N50" s="40"/>
-    </row>
-    <row r="51" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="K50" s="65"/>
+      <c r="L50" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="53"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="54" t="s">
-        <v>207</v>
+        <v>70</v>
+      </c>
+      <c r="B51" s="51" t="s">
+        <v>204</v>
       </c>
       <c r="C51" s="20">
         <v>49</v>
@@ -4368,32 +4560,34 @@
         <v>0</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F51" s="30" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G51" s="30" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H51" s="30" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I51" s="30" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J51" s="39"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="40"/>
-    </row>
-    <row r="52" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="K51" s="65"/>
+      <c r="L51" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="54"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C52" s="20">
         <v>50</v>
@@ -4402,32 +4596,34 @@
         <v>1</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F52" s="30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G52" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I52" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="J52" s="46"/>
-      <c r="K52" s="55"/>
-      <c r="L52" s="47"/>
-      <c r="M52" s="47"/>
-      <c r="N52" s="47"/>
-    </row>
-    <row r="53" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="J52" s="44"/>
+      <c r="K52" s="67"/>
+      <c r="L52" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="52"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C53" s="20">
         <v>51</v>
@@ -4439,29 +4635,31 @@
         <v>34</v>
       </c>
       <c r="F53" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G53" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H53" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I53" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="J53" s="46"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="47"/>
-      <c r="N53" s="47"/>
-    </row>
-    <row r="54" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="J53" s="44"/>
+      <c r="K53" s="67"/>
+      <c r="L53" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="49"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C54" s="20">
         <v>52</v>
@@ -4470,32 +4668,34 @@
         <v>2</v>
       </c>
       <c r="E54" s="30" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F54" s="30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G54" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H54" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I54" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="J54" s="46"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="47"/>
-    </row>
-    <row r="55" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="J54" s="44"/>
+      <c r="K54" s="67"/>
+      <c r="L54" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="34"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C55" s="20">
         <v>53</v>
@@ -4510,26 +4710,28 @@
         <v>30</v>
       </c>
       <c r="G55" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H55" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I55" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="J55" s="46"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="47"/>
-      <c r="M55" s="47"/>
-      <c r="N55" s="47"/>
-    </row>
-    <row r="56" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="J55" s="44"/>
+      <c r="K55" s="67"/>
+      <c r="L55" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="34"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C56" s="20">
         <v>54</v>
@@ -4538,32 +4740,34 @@
         <v>1</v>
       </c>
       <c r="E56" s="30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F56" s="30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G56" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H56" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I56" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="J56" s="48"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="47"/>
-      <c r="M56" s="47"/>
-      <c r="N56" s="47"/>
-    </row>
-    <row r="57" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="J56" s="46"/>
+      <c r="K56" s="67"/>
+      <c r="L56" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="34"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C57" s="20">
         <v>55</v>
@@ -4572,32 +4776,34 @@
         <v>1</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F57" s="30" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G57" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H57" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I57" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="J57" s="48"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="47"/>
-      <c r="M57" s="47"/>
-      <c r="N57" s="47"/>
-    </row>
-    <row r="58" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="J57" s="46"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="34"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C58" s="20">
         <v>56</v>
@@ -4606,32 +4812,34 @@
         <v>2</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F58" s="30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G58" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I58" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="J58" s="48"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="47"/>
-      <c r="M58" s="47"/>
-      <c r="N58" s="47"/>
-    </row>
-    <row r="59" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="J58" s="46"/>
+      <c r="K58" s="67"/>
+      <c r="L58" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="34"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B59" s="54" t="s">
-        <v>207</v>
+        <v>70</v>
+      </c>
+      <c r="B59" s="51" t="s">
+        <v>204</v>
       </c>
       <c r="C59" s="20">
         <v>57</v>
@@ -4640,32 +4848,34 @@
         <v>0</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F59" s="30" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G59" s="30" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H59" s="30" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I59" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="J59" s="48"/>
-      <c r="K59" s="59"/>
-      <c r="L59" s="47"/>
-      <c r="M59" s="47"/>
-      <c r="N59" s="47"/>
-    </row>
-    <row r="60" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+      <c r="J59" s="46"/>
+      <c r="K59" s="67"/>
+      <c r="L59" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="56"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" s="20">
         <v>58</v>
@@ -4680,26 +4890,28 @@
         <v>22</v>
       </c>
       <c r="G60" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H60" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I60" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="J60" s="48"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="47"/>
-      <c r="M60" s="47"/>
-      <c r="N60" s="47"/>
-    </row>
-    <row r="61" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="J60" s="46"/>
+      <c r="K60" s="67"/>
+      <c r="L60" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="34"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C61" s="20">
         <v>59</v>
@@ -4708,32 +4920,34 @@
         <v>1</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F61" s="30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G61" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H61" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I61" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="J61" s="48"/>
-      <c r="K61" s="34"/>
-      <c r="L61" s="47"/>
-      <c r="M61" s="47"/>
-      <c r="N61" s="47"/>
-    </row>
-    <row r="62" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="J61" s="46"/>
+      <c r="K61" s="67"/>
+      <c r="L61" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="34"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C62" s="20">
         <v>60</v>
@@ -4748,26 +4962,28 @@
         <v>19</v>
       </c>
       <c r="G62" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I62" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="J62" s="48"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="47"/>
-      <c r="M62" s="47"/>
-      <c r="N62" s="47"/>
-    </row>
-    <row r="63" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="J62" s="46"/>
+      <c r="K62" s="67"/>
+      <c r="L62" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="34"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C63" s="20">
         <v>61</v>
@@ -4782,26 +4998,28 @@
         <v>46</v>
       </c>
       <c r="G63" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H63" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I63" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="J63" s="48"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="47"/>
-      <c r="M63" s="47"/>
-      <c r="N63" s="47"/>
-    </row>
-    <row r="64" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="J63" s="46"/>
+      <c r="K63" s="67"/>
+      <c r="L63" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="34"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C64" s="20">
         <v>62</v>
@@ -4816,26 +5034,28 @@
         <v>39</v>
       </c>
       <c r="G64" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I64" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="J64" s="48"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="47"/>
-      <c r="M64" s="47"/>
-      <c r="N64" s="47"/>
-    </row>
-    <row r="65" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="J64" s="46"/>
+      <c r="K64" s="67"/>
+      <c r="L64" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="34"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C65" s="20">
         <v>63</v>
@@ -4844,32 +5064,34 @@
         <v>1</v>
       </c>
       <c r="E65" s="30" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F65" s="30" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G65" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H65" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I65" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="J65" s="48"/>
-      <c r="K65" s="59"/>
-      <c r="L65" s="47"/>
-      <c r="M65" s="47"/>
-      <c r="N65" s="47"/>
-    </row>
-    <row r="66" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="J65" s="46"/>
+      <c r="K65" s="67"/>
+      <c r="L65" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="56"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C66" s="20">
         <v>64</v>
@@ -4878,32 +5100,38 @@
         <v>1</v>
       </c>
       <c r="E66" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="F66" s="30" t="s">
-        <v>91</v>
+        <v>160</v>
+      </c>
+      <c r="F66" s="69" t="s">
+        <v>88</v>
       </c>
       <c r="G66" s="30" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H66" s="30" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I66" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="J66" s="46"/>
-      <c r="K66" s="59"/>
-      <c r="L66" s="47"/>
-      <c r="M66" s="47"/>
-      <c r="N66" s="47"/>
-    </row>
-    <row r="67" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="J66" s="44"/>
+      <c r="K66" s="67">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="L66" s="65">
+        <f t="shared" si="0"/>
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="M66" s="56" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B67" s="62" t="s">
-        <v>277</v>
+        <v>73</v>
+      </c>
+      <c r="B67" s="59" t="s">
+        <v>273</v>
       </c>
       <c r="C67" s="20">
         <v>65</v>
@@ -4915,31 +5143,35 @@
         <v>68</v>
       </c>
       <c r="F67" s="30" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G67" s="30" t="s">
         <v>67</v>
       </c>
       <c r="H67" s="30" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I67" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="J67" s="46"/>
-      <c r="K67" s="59" t="s">
-        <v>250</v>
-      </c>
-      <c r="L67" s="47"/>
-      <c r="M67" s="47"/>
-      <c r="N67" s="47"/>
-    </row>
-    <row r="68" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>245</v>
+      </c>
+      <c r="J67" s="44"/>
+      <c r="K67" s="67">
+        <v>0.91432999999999998</v>
+      </c>
+      <c r="L67" s="65">
+        <f t="shared" si="0"/>
+        <v>0.91432999999999998</v>
+      </c>
+      <c r="M67" s="56" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B68" s="62" t="s">
-        <v>277</v>
+        <v>73</v>
+      </c>
+      <c r="B68" s="59" t="s">
+        <v>273</v>
       </c>
       <c r="C68" s="20">
         <v>66</v>
@@ -4951,31 +5183,35 @@
         <v>8</v>
       </c>
       <c r="F68" s="30" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G68" s="30" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H68" s="30" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I68" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="J68" s="46"/>
-      <c r="K68" s="59" t="s">
-        <v>253</v>
-      </c>
-      <c r="L68" s="47"/>
-      <c r="M68" s="47"/>
-      <c r="N68" s="47"/>
-    </row>
-    <row r="69" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>248</v>
+      </c>
+      <c r="J68" s="44"/>
+      <c r="K68" s="67">
+        <v>0.53656000000000004</v>
+      </c>
+      <c r="L68" s="65">
+        <f t="shared" si="0"/>
+        <v>0.53656000000000004</v>
+      </c>
+      <c r="M68" s="56" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C69" s="20">
         <v>67</v>
@@ -4987,31 +5223,35 @@
         <v>48</v>
       </c>
       <c r="F69" s="30" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G69" s="30" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I69" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="J69" s="46"/>
-      <c r="K69" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="L69" s="47"/>
-      <c r="M69" s="47"/>
-      <c r="N69" s="47"/>
-    </row>
-    <row r="70" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+      <c r="J69" s="44"/>
+      <c r="K69" s="67">
+        <v>0.65</v>
+      </c>
+      <c r="L69" s="65">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+      <c r="M69" s="56" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C70" s="20">
         <v>68</v>
@@ -5020,31 +5260,33 @@
         <v>1</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F70" s="30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G70" s="30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I70" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="J70" s="46"/>
-      <c r="L70" s="47"/>
-      <c r="M70" s="47"/>
-      <c r="N70" s="47"/>
-    </row>
-    <row r="71" spans="1:14" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A71" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71" s="62" t="s">
-        <v>277</v>
+        <v>164</v>
+      </c>
+      <c r="J70" s="44"/>
+      <c r="K70" s="67"/>
+      <c r="L70" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="59" t="s">
+        <v>273</v>
       </c>
       <c r="C71" s="20">
         <v>69</v>
@@ -5053,34 +5295,38 @@
         <v>1</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F71" s="30" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G71" s="30" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I71" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="J71" s="46"/>
-      <c r="K71" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="L71" s="47"/>
-      <c r="M71" s="47"/>
-      <c r="N71" s="47"/>
-    </row>
-    <row r="72" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+      <c r="J71" s="44"/>
+      <c r="K71" s="67">
+        <v>0.42686000000000002</v>
+      </c>
+      <c r="L71" s="65">
+        <f t="shared" si="0"/>
+        <v>0.42686000000000002</v>
+      </c>
+      <c r="M71" s="56" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C72" s="20">
         <v>70</v>
@@ -5089,34 +5335,38 @@
         <v>1</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F72" s="30" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G72" s="30" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H72" s="30" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I72" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="J72" s="49"/>
-      <c r="K72" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="L72" s="44"/>
-      <c r="M72" s="44"/>
-      <c r="N72" s="40"/>
-    </row>
-    <row r="73" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>170</v>
+      </c>
+      <c r="J72" s="47"/>
+      <c r="K72" s="66">
+        <v>1.2505999999999999</v>
+      </c>
+      <c r="L72" s="65">
+        <f t="shared" ref="L72:L83" si="1">K72*D72</f>
+        <v>1.2505999999999999</v>
+      </c>
+      <c r="M72" s="52" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" s="54" t="s">
-        <v>222</v>
+        <v>70</v>
+      </c>
+      <c r="B73" s="51" t="s">
+        <v>219</v>
       </c>
       <c r="C73" s="20">
         <v>71</v>
@@ -5128,31 +5378,33 @@
         <v>6</v>
       </c>
       <c r="F73" s="30" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G73" s="30" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H73" s="30" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I73" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="J73" s="46"/>
-      <c r="K73" t="s">
-        <v>259</v>
-      </c>
-      <c r="L73" s="47"/>
-      <c r="M73" s="47"/>
-      <c r="N73" s="47"/>
-    </row>
-    <row r="74" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+      <c r="J73" s="44"/>
+      <c r="K73" s="67"/>
+      <c r="L73" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M73" s="64" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C74" s="20">
         <v>72</v>
@@ -5164,31 +5416,35 @@
         <v>44</v>
       </c>
       <c r="F74" s="30" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G74" s="30">
         <v>7414</v>
       </c>
       <c r="H74" s="30" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I74" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="J74" s="47"/>
-      <c r="K74" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="L74" s="47"/>
-      <c r="M74" s="47"/>
-      <c r="N74" s="47"/>
-    </row>
-    <row r="75" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="J74" s="45"/>
+      <c r="K74" s="67">
+        <v>0.27063999999999999</v>
+      </c>
+      <c r="L74" s="65">
+        <f t="shared" si="1"/>
+        <v>0.54127999999999998</v>
+      </c>
+      <c r="M74" s="56" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" s="54" t="s">
-        <v>210</v>
+        <v>73</v>
+      </c>
+      <c r="B75" s="51" t="s">
+        <v>207</v>
       </c>
       <c r="C75" s="20">
         <v>73</v>
@@ -5200,31 +5456,35 @@
         <v>62</v>
       </c>
       <c r="F75" s="30" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G75" s="30" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I75" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="J75" s="47"/>
-      <c r="K75" s="59" t="s">
-        <v>233</v>
-      </c>
-      <c r="L75" s="47"/>
-      <c r="M75" s="47"/>
-      <c r="N75" s="47"/>
-    </row>
-    <row r="76" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>257</v>
+      </c>
+      <c r="J75" s="45"/>
+      <c r="K75" s="67">
+        <v>1.0848</v>
+      </c>
+      <c r="L75" s="65">
+        <f t="shared" si="1"/>
+        <v>1.0848</v>
+      </c>
+      <c r="M75" s="56" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C76" s="20">
         <v>74</v>
@@ -5236,31 +5496,35 @@
         <v>58</v>
       </c>
       <c r="F76" s="30" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G76" s="30" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H76" s="30" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I76" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="J76" s="46"/>
-      <c r="K76" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="L76" s="47"/>
-      <c r="M76" s="47"/>
-      <c r="N76" s="47"/>
-    </row>
-    <row r="77" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+      <c r="J76" s="44"/>
+      <c r="K76" s="67">
+        <v>0.75968000000000002</v>
+      </c>
+      <c r="L76" s="65">
+        <f t="shared" si="1"/>
+        <v>0.75968000000000002</v>
+      </c>
+      <c r="M76" s="56" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C77" s="20">
         <v>75</v>
@@ -5278,23 +5542,27 @@
         <v>9</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I77" s="30"/>
-      <c r="J77" s="46"/>
-      <c r="K77" s="59" t="s">
-        <v>235</v>
-      </c>
-      <c r="L77" s="47"/>
-      <c r="M77" s="47"/>
-      <c r="N77" s="47"/>
-    </row>
-    <row r="78" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="J77" s="44"/>
+      <c r="K77" s="67">
+        <v>1.02728</v>
+      </c>
+      <c r="L77" s="65">
+        <f t="shared" si="1"/>
+        <v>1.02728</v>
+      </c>
+      <c r="M77" s="56" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B78" s="54" t="s">
-        <v>210</v>
+        <v>73</v>
+      </c>
+      <c r="B78" s="51" t="s">
+        <v>207</v>
       </c>
       <c r="C78" s="20">
         <v>76</v>
@@ -5306,31 +5574,35 @@
         <v>11</v>
       </c>
       <c r="F78" s="30" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G78" s="30" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H78" s="30" t="s">
         <v>50</v>
       </c>
       <c r="I78" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="J78" s="46"/>
-      <c r="K78" s="59" t="s">
-        <v>260</v>
-      </c>
-      <c r="L78" s="47"/>
-      <c r="M78" s="47"/>
-      <c r="N78" s="47"/>
-    </row>
-    <row r="79" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>196</v>
+      </c>
+      <c r="J78" s="44"/>
+      <c r="K78" s="67">
+        <v>0.28182000000000001</v>
+      </c>
+      <c r="L78" s="65">
+        <f t="shared" si="1"/>
+        <v>0.28182000000000001</v>
+      </c>
+      <c r="M78" s="56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C79" s="20">
         <v>77</v>
@@ -5339,32 +5611,36 @@
         <v>1</v>
       </c>
       <c r="E79" s="30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F79" s="30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G79" s="30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H79" s="30" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I79" s="30"/>
-      <c r="J79" s="46"/>
-      <c r="K79" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="L79" s="47"/>
-      <c r="M79" s="47"/>
-      <c r="N79" s="47"/>
-    </row>
-    <row r="80" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="J79" s="44"/>
+      <c r="K79" s="67">
+        <v>0.86136000000000001</v>
+      </c>
+      <c r="L79" s="65">
+        <f t="shared" si="1"/>
+        <v>0.86136000000000001</v>
+      </c>
+      <c r="M79" s="56" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B80" s="62" t="s">
-        <v>277</v>
+        <v>73</v>
+      </c>
+      <c r="B80" s="59" t="s">
+        <v>273</v>
       </c>
       <c r="C80" s="20">
         <v>78</v>
@@ -5376,31 +5652,35 @@
         <v>18</v>
       </c>
       <c r="F80" s="30" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G80" s="30" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H80" s="30" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I80" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="J80" s="46"/>
-      <c r="K80" s="59" t="s">
-        <v>237</v>
-      </c>
-      <c r="L80" s="47"/>
-      <c r="M80" s="47"/>
-      <c r="N80" s="47"/>
-    </row>
-    <row r="81" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+      <c r="J80" s="44"/>
+      <c r="K80" s="67">
+        <v>0.57067999999999997</v>
+      </c>
+      <c r="L80" s="65">
+        <f t="shared" si="1"/>
+        <v>0.57067999999999997</v>
+      </c>
+      <c r="M80" s="56" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B81" s="54" t="s">
-        <v>208</v>
+        <v>73</v>
+      </c>
+      <c r="B81" s="51" t="s">
+        <v>205</v>
       </c>
       <c r="C81" s="20">
         <v>79</v>
@@ -5408,32 +5688,34 @@
       <c r="D81" s="30">
         <v>1</v>
       </c>
-      <c r="E81" s="50" t="s">
-        <v>189</v>
-      </c>
-      <c r="F81" s="52" t="s">
-        <v>212</v>
+      <c r="E81" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="F81" s="49" t="s">
+        <v>209</v>
       </c>
       <c r="G81" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I81" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="J81" s="46"/>
-      <c r="L81" s="47"/>
-      <c r="M81" s="47"/>
-      <c r="N81" s="47"/>
-    </row>
-    <row r="82" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="J81" s="44"/>
+      <c r="K81" s="67"/>
+      <c r="L81" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B82" s="54" t="s">
-        <v>222</v>
+        <v>70</v>
+      </c>
+      <c r="B82" s="51" t="s">
+        <v>219</v>
       </c>
       <c r="C82" s="20">
         <v>80</v>
@@ -5441,11 +5723,11 @@
       <c r="D82" s="30">
         <v>0</v>
       </c>
-      <c r="E82" s="50" t="s">
-        <v>192</v>
+      <c r="E82" s="48" t="s">
+        <v>189</v>
       </c>
       <c r="F82" s="30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G82" s="30" t="s">
         <v>49</v>
@@ -5456,18 +5738,20 @@
       <c r="I82" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="J82" s="46"/>
-      <c r="K82" s="47"/>
-      <c r="L82" s="47"/>
-      <c r="M82" s="47"/>
-      <c r="N82" s="47"/>
-    </row>
-    <row r="83" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="J82" s="44"/>
+      <c r="K82" s="67"/>
+      <c r="L82" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M82" s="45"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B83" s="54" t="s">
-        <v>208</v>
+        <v>73</v>
+      </c>
+      <c r="B83" s="51" t="s">
+        <v>205</v>
       </c>
       <c r="C83" s="20">
         <v>81</v>
@@ -5476,31 +5760,41 @@
         <v>1</v>
       </c>
       <c r="E83" s="30" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F83" s="30" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G83" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I83" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="J83" s="46"/>
-      <c r="K83" s="47"/>
-      <c r="L83" s="47"/>
-      <c r="M83" s="47"/>
-      <c r="N83" s="47"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="H84" s="53"/>
+        <v>146</v>
+      </c>
+      <c r="J83" s="44"/>
+      <c r="K83" s="67"/>
+      <c r="L83" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="45"/>
+    </row>
+    <row r="84" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H84" s="50"/>
+      <c r="K84" s="68">
+        <f>SUM(K7:K83)</f>
+        <v>13.467829999999996</v>
+      </c>
+      <c r="L84" s="68">
+        <f>SUM(L7:L83)</f>
+        <v>15.097909999999997</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="48" type="noConversion"/>
+  <phoneticPr fontId="46" type="noConversion"/>
   <conditionalFormatting sqref="A66:A70">
     <cfRule type="containsText" dxfId="24" priority="52" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",A66)))</formula>
@@ -5603,25 +5897,39 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="K80" r:id="rId1" xr:uid="{46DCE037-8313-2544-B32B-B188ADE591F9}"/>
-    <hyperlink ref="K79" r:id="rId2" xr:uid="{DD5D38DF-60A3-894B-A8C4-B61C5ABCF441}"/>
-    <hyperlink ref="K77" r:id="rId3" xr:uid="{F4DEBB30-F67B-C94B-B2E9-67BB5837159D}"/>
-    <hyperlink ref="K76" r:id="rId4" xr:uid="{A797DAEB-C3DF-734B-9E3C-5F930319B346}"/>
-    <hyperlink ref="K75" r:id="rId5" xr:uid="{D1102C89-8F3E-8A45-86BE-EC772219B285}"/>
-    <hyperlink ref="K74" r:id="rId6" xr:uid="{189DDB8E-2BCF-2043-84AD-1E821B571C88}"/>
-    <hyperlink ref="K72" r:id="rId7" xr:uid="{33934572-8720-054D-B582-DE5BCDA960AD}"/>
-    <hyperlink ref="K71" r:id="rId8" xr:uid="{A515B6D0-21D4-C94A-ADC7-99FB43D86E2A}"/>
-    <hyperlink ref="K69" r:id="rId9" xr:uid="{65DCF4BE-572C-814B-970F-942C2D79DAD8}"/>
-    <hyperlink ref="K39" r:id="rId10" xr:uid="{FBDA67C0-408D-0944-8FDB-918278DCA44F}"/>
-    <hyperlink ref="K36" r:id="rId11" xr:uid="{831EE8F5-7C0E-2048-A0E0-1E0EF5B8DBB1}"/>
-    <hyperlink ref="K28" r:id="rId12" xr:uid="{518A6692-3A50-F942-B48D-CC4356762EAD}"/>
-    <hyperlink ref="K22" r:id="rId13" xr:uid="{A1379108-F295-EE45-B6ED-5162031D55EB}"/>
-    <hyperlink ref="K7" r:id="rId14" xr:uid="{5948B746-AAC4-5740-AB8C-E151299C82FE}"/>
-    <hyperlink ref="K21" r:id="rId15" xr:uid="{7F2AFDE5-1B48-DB4E-A5DC-FF059C0FC2B5}"/>
+    <hyperlink ref="M80" r:id="rId1" xr:uid="{46DCE037-8313-2544-B32B-B188ADE591F9}"/>
+    <hyperlink ref="M79" r:id="rId2" xr:uid="{DD5D38DF-60A3-894B-A8C4-B61C5ABCF441}"/>
+    <hyperlink ref="M77" r:id="rId3" xr:uid="{F4DEBB30-F67B-C94B-B2E9-67BB5837159D}"/>
+    <hyperlink ref="M76" r:id="rId4" xr:uid="{A797DAEB-C3DF-734B-9E3C-5F930319B346}"/>
+    <hyperlink ref="M75" r:id="rId5" xr:uid="{D1102C89-8F3E-8A45-86BE-EC772219B285}"/>
+    <hyperlink ref="M74" r:id="rId6" xr:uid="{189DDB8E-2BCF-2043-84AD-1E821B571C88}"/>
+    <hyperlink ref="M72" r:id="rId7" xr:uid="{33934572-8720-054D-B582-DE5BCDA960AD}"/>
+    <hyperlink ref="M71" r:id="rId8" xr:uid="{A515B6D0-21D4-C94A-ADC7-99FB43D86E2A}"/>
+    <hyperlink ref="M69" r:id="rId9" xr:uid="{65DCF4BE-572C-814B-970F-942C2D79DAD8}"/>
+    <hyperlink ref="M36" r:id="rId10" xr:uid="{831EE8F5-7C0E-2048-A0E0-1E0EF5B8DBB1}"/>
+    <hyperlink ref="M28" r:id="rId11" xr:uid="{518A6692-3A50-F942-B48D-CC4356762EAD}"/>
+    <hyperlink ref="M22" r:id="rId12" xr:uid="{A1379108-F295-EE45-B6ED-5162031D55EB}"/>
+    <hyperlink ref="M7" r:id="rId13" xr:uid="{5948B746-AAC4-5740-AB8C-E151299C82FE}"/>
+    <hyperlink ref="M21" r:id="rId14" xr:uid="{7F2AFDE5-1B48-DB4E-A5DC-FF059C0FC2B5}"/>
+    <hyperlink ref="M23" r:id="rId15" xr:uid="{A5F97488-99F9-4CD4-910F-4182E99AA8CA}"/>
+    <hyperlink ref="M24" r:id="rId16" xr:uid="{646B658D-AE56-44EA-A58F-40CDBDEF2D0C}"/>
+    <hyperlink ref="M26" r:id="rId17" xr:uid="{47FDBB7E-44E8-4353-9597-0562E7BF59F5}"/>
+    <hyperlink ref="M27" r:id="rId18" xr:uid="{8736A480-3930-45F7-AECD-F285FFC9909F}"/>
+    <hyperlink ref="M30" r:id="rId19" xr:uid="{F9FA5EE5-1B77-4F3B-8F3F-3842AA6F0BAA}"/>
+    <hyperlink ref="M33" r:id="rId20" xr:uid="{AB84C394-095B-406A-966B-81DF3D2E2812}"/>
+    <hyperlink ref="M31" r:id="rId21" xr:uid="{C8A6F598-6C7B-4E81-A0E7-EBB0B449E508}"/>
+    <hyperlink ref="M32" r:id="rId22" xr:uid="{51DB6C5F-D3B9-4DE7-B2D3-FC15FA2E815B}"/>
+    <hyperlink ref="M34" r:id="rId23" xr:uid="{1E8D4B86-2BB1-4BC4-B74E-EFE1D1B71B87}"/>
+    <hyperlink ref="M37" r:id="rId24" xr:uid="{E3611F41-7D12-4600-84CB-E5DA78E4D275}"/>
+    <hyperlink ref="M38" r:id="rId25" xr:uid="{F8FD3DE4-2053-469C-A880-F854815B0BBC}"/>
+    <hyperlink ref="M67" r:id="rId26" xr:uid="{5E58DFC9-92C6-487D-82FB-789F079E9373}"/>
+    <hyperlink ref="M68" r:id="rId27" xr:uid="{9D884BB0-E9D5-416B-B348-A3CCA307ED67}"/>
+    <hyperlink ref="M73" r:id="rId28" xr:uid="{4AD4981F-0482-460C-B12B-D6E5A82469EE}"/>
+    <hyperlink ref="M78" r:id="rId29" xr:uid="{168580DB-C131-4BC7-9E3D-A9AEB4A7EE65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
-  <legacyDrawing r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
+  <legacyDrawing r:id="rId31"/>
 </worksheet>
 </file>
 
@@ -5630,68 +5938,69 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.5" style="16"/>
-    <col min="4" max="4" width="60.5" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="16"/>
+    <col min="2" max="2" width="15.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.42578125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B1"/>
     </row>
-    <row r="2" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2"/>
     </row>
-    <row r="3" spans="1:4" s="13" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B4" s="33">
         <v>45020</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="112" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B5" s="36">
         <v>45076</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="35">
         <v>3</v>
       </c>
@@ -5699,13 +6008,13 @@
         <v>45077</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="35">
         <v>4</v>
       </c>
@@ -5713,239 +6022,247 @@
         <v>45078</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D7" s="23" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="35">
+        <v>5</v>
+      </c>
+      <c r="B8" s="36">
+        <v>45082</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.15">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="64"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="24"/>
       <c r="B9" s="25"/>
       <c r="C9" s="21"/>
       <c r="D9" s="23"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="24"/>
       <c r="B10" s="25"/>
       <c r="C10" s="21"/>
-      <c r="D10" s="65"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D10" s="61"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="25"/>
       <c r="C11" s="21"/>
       <c r="D11" s="23"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
       <c r="B12" s="25"/>
       <c r="C12" s="21"/>
       <c r="D12" s="23"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="25"/>
       <c r="C13" s="21"/>
       <c r="D13" s="23"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
       <c r="B14" s="25"/>
       <c r="C14" s="21"/>
       <c r="D14" s="23"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="24"/>
       <c r="B15" s="25"/>
       <c r="C15" s="21"/>
       <c r="D15" s="23"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="24"/>
       <c r="B16" s="25"/>
       <c r="C16" s="21"/>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="24"/>
       <c r="B17" s="25"/>
       <c r="C17" s="21"/>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="24"/>
       <c r="B18" s="25"/>
       <c r="C18" s="21"/>
       <c r="D18" s="23"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="24"/>
       <c r="B19" s="25"/>
       <c r="C19" s="21"/>
       <c r="D19" s="23"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="24"/>
       <c r="B20" s="25"/>
       <c r="C20" s="21"/>
       <c r="D20" s="23"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="24"/>
       <c r="B21" s="25"/>
       <c r="C21" s="21"/>
       <c r="D21" s="23"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="24"/>
       <c r="B22" s="25"/>
       <c r="C22" s="21"/>
       <c r="D22" s="23"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="24"/>
       <c r="B23" s="25"/>
       <c r="C23" s="21"/>
       <c r="D23" s="23"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="24"/>
       <c r="B24" s="25"/>
       <c r="C24" s="21"/>
       <c r="D24" s="23"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="24"/>
       <c r="B25" s="25"/>
       <c r="C25" s="21"/>
       <c r="D25" s="23"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="24"/>
       <c r="B26" s="25"/>
       <c r="C26" s="21"/>
       <c r="D26" s="23"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="B27" s="25"/>
       <c r="C27" s="21"/>
       <c r="D27" s="23"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="24"/>
       <c r="B28" s="25"/>
       <c r="C28" s="21"/>
       <c r="D28" s="23"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
       <c r="B29" s="25"/>
       <c r="C29" s="21"/>
       <c r="D29" s="23"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="24"/>
       <c r="B30" s="25"/>
       <c r="C30" s="21"/>
       <c r="D30" s="23"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="24"/>
       <c r="B31" s="25"/>
       <c r="C31" s="21"/>
       <c r="D31" s="23"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="24"/>
       <c r="B32" s="25"/>
       <c r="C32" s="21"/>
       <c r="D32" s="23"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="24"/>
       <c r="B33" s="25"/>
       <c r="C33" s="21"/>
       <c r="D33" s="23"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="24"/>
       <c r="B34" s="25"/>
       <c r="C34" s="21"/>
       <c r="D34" s="23"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="24"/>
       <c r="B35" s="25"/>
       <c r="C35" s="21"/>
       <c r="D35" s="23"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="24"/>
       <c r="B36" s="25"/>
       <c r="C36" s="21"/>
       <c r="D36" s="23"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="24"/>
       <c r="B37" s="25"/>
       <c r="C37" s="21"/>
       <c r="D37" s="23"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="24"/>
       <c r="B38" s="25"/>
       <c r="C38" s="21"/>
       <c r="D38" s="23"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="24"/>
       <c r="B39" s="25"/>
       <c r="C39" s="21"/>
       <c r="D39" s="23"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="24"/>
       <c r="B40" s="25"/>
       <c r="C40" s="21"/>
       <c r="D40" s="23"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="24"/>
       <c r="B41" s="25"/>
       <c r="C41" s="21"/>
       <c r="D41" s="23"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="24"/>
       <c r="B42" s="25"/>
       <c r="C42" s="21"/>
       <c r="D42" s="23"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="24"/>
       <c r="B43" s="25"/>
       <c r="C43" s="21"/>
       <c r="D43" s="23"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="24"/>
       <c r="B44" s="25"/>
       <c r="C44" s="21"/>
       <c r="D44" s="23"/>
     </row>
-    <row r="45" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="26"/>
       <c r="B45" s="27"/>
       <c r="C45" s="28"/>
-      <c r="D45" s="66"/>
+      <c r="D45" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
